--- a/data/CAT_COMMANDS/questions-skill_model2b.xlsx
+++ b/data/CAT_COMMANDS/questions-skill_model2b.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/CAT-unplugged/model/data/CAT_COMMANDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/CAT_COMMANDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFA4384-E425-E84C-9129-9A5480D971E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2224C9CF-B54F-3C40-9889-426434732751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10920" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>Question_ID</t>
   </si>
@@ -220,6 +220,99 @@
   </si>
   <si>
     <t>paintDot</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
   </si>
 </sst>
 </file>
@@ -547,36 +640,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,6 +683,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +1041,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D445" sqref="D445:D484"/>
+      <selection pane="bottomRight" activeCell="L499" sqref="L499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,62 +1064,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:373" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="35" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="37"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="52"/>
     </row>
     <row r="2" spans="1:373" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1086,9 +1179,9 @@
       </c>
     </row>
     <row r="3" spans="1:373" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>61</v>
       </c>
@@ -1541,39 +1634,102 @@
       <c r="NI3" s="8"/>
     </row>
     <row r="4" spans="1:373" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>92</v>
+      </c>
       <c r="AI4" s="12" t="s">
         <v>13</v>
       </c>
@@ -1603,107 +1759,107 @@
       </c>
     </row>
     <row r="5" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
+      <c r="A5" s="55">
         <v>1</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="32">
         <v>0.75</v>
       </c>
-      <c r="E5" s="43">
-        <v>0</v>
-      </c>
-      <c r="F5" s="43">
-        <v>0</v>
-      </c>
-      <c r="G5" s="43">
-        <v>0</v>
-      </c>
-      <c r="H5" s="43">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="43">
-        <v>0</v>
-      </c>
-      <c r="K5" s="43">
-        <v>0</v>
-      </c>
-      <c r="L5" s="43">
-        <v>0</v>
-      </c>
-      <c r="M5" s="43">
-        <v>0</v>
-      </c>
-      <c r="N5" s="43">
-        <v>0</v>
-      </c>
-      <c r="O5" s="43">
-        <v>0</v>
-      </c>
-      <c r="P5" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>0</v>
-      </c>
-      <c r="R5" s="43">
-        <v>0</v>
-      </c>
-      <c r="S5" s="43">
-        <v>0</v>
-      </c>
-      <c r="T5" s="43">
-        <v>0</v>
-      </c>
-      <c r="U5" s="43">
-        <v>0</v>
-      </c>
-      <c r="V5" s="43">
-        <v>0</v>
-      </c>
-      <c r="W5" s="43">
-        <v>0</v>
-      </c>
-      <c r="X5" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="43">
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <v>0</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>0</v>
+      </c>
+      <c r="R5" s="33">
+        <v>0</v>
+      </c>
+      <c r="S5" s="33">
+        <v>0</v>
+      </c>
+      <c r="T5" s="33">
+        <v>0</v>
+      </c>
+      <c r="U5" s="33">
+        <v>0</v>
+      </c>
+      <c r="V5" s="33">
+        <v>0</v>
+      </c>
+      <c r="W5" s="33">
+        <v>0</v>
+      </c>
+      <c r="X5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="33">
         <v>0</v>
       </c>
       <c r="AI5" s="27">
@@ -1730,7 +1886,7 @@
       <c r="AP5" s="18">
         <v>0</v>
       </c>
-      <c r="AQ5" s="44">
+      <c r="AQ5" s="34">
         <v>0</v>
       </c>
       <c r="AR5"/>
@@ -2065,7 +2221,7 @@
       <c r="NI5"/>
     </row>
     <row r="6" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="13">
         <v>2</v>
       </c>
@@ -2195,7 +2351,7 @@
       </c>
     </row>
     <row r="7" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="13">
         <v>3</v>
       </c>
@@ -2325,7 +2481,7 @@
       </c>
     </row>
     <row r="8" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="13">
         <v>4</v>
       </c>
@@ -2455,7 +2611,7 @@
       </c>
     </row>
     <row r="9" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="13">
         <v>5</v>
       </c>
@@ -2585,7 +2741,7 @@
       </c>
     </row>
     <row r="10" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -2715,7 +2871,7 @@
       </c>
     </row>
     <row r="11" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="13">
         <v>7</v>
       </c>
@@ -2845,7 +3001,7 @@
       </c>
     </row>
     <row r="12" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="13">
         <v>8</v>
       </c>
@@ -2975,7 +3131,7 @@
       </c>
     </row>
     <row r="13" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="13">
         <v>9</v>
       </c>
@@ -3105,7 +3261,7 @@
       </c>
     </row>
     <row r="14" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -3235,7 +3391,7 @@
       </c>
     </row>
     <row r="15" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="13">
         <v>11</v>
       </c>
@@ -3365,7 +3521,7 @@
       </c>
     </row>
     <row r="16" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="13">
         <v>12</v>
       </c>
@@ -3495,7 +3651,7 @@
       </c>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="13">
         <v>13</v>
       </c>
@@ -3625,7 +3781,7 @@
       </c>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="13">
         <v>14</v>
       </c>
@@ -3755,7 +3911,7 @@
       </c>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="13">
         <v>15</v>
       </c>
@@ -3885,7 +4041,7 @@
       </c>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="13">
         <v>16</v>
       </c>
@@ -4015,7 +4171,7 @@
       </c>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="13">
         <v>17</v>
       </c>
@@ -4145,7 +4301,7 @@
       </c>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="13">
         <v>18</v>
       </c>
@@ -4275,7 +4431,7 @@
       </c>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="13">
         <v>19</v>
       </c>
@@ -4405,7 +4561,7 @@
       </c>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="13">
         <v>20</v>
       </c>
@@ -4535,7 +4691,7 @@
       </c>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="13">
         <v>21</v>
       </c>
@@ -4665,7 +4821,7 @@
       </c>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="13">
         <v>22</v>
       </c>
@@ -4795,7 +4951,7 @@
       </c>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="13">
         <v>23</v>
       </c>
@@ -4925,7 +5081,7 @@
       </c>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="13">
         <v>24</v>
       </c>
@@ -5055,7 +5211,7 @@
       </c>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="13">
         <v>25</v>
       </c>
@@ -5185,7 +5341,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="13">
         <v>26</v>
       </c>
@@ -5315,7 +5471,7 @@
       </c>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="13">
         <v>27</v>
       </c>
@@ -5445,7 +5601,7 @@
       </c>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="13">
         <v>28</v>
       </c>
@@ -5575,7 +5731,7 @@
       </c>
     </row>
     <row r="33" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="13">
         <v>29</v>
       </c>
@@ -5705,7 +5861,7 @@
       </c>
     </row>
     <row r="34" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="13">
         <v>30</v>
       </c>
@@ -5835,7 +5991,7 @@
       </c>
     </row>
     <row r="35" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="13">
         <v>31</v>
       </c>
@@ -5965,7 +6121,7 @@
       </c>
     </row>
     <row r="36" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="16">
         <v>32</v>
       </c>
@@ -6424,7 +6580,7 @@
       <c r="NI36" s="2"/>
     </row>
     <row r="37" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="13">
         <v>33</v>
       </c>
@@ -6553,7 +6709,7 @@
       </c>
     </row>
     <row r="38" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="13">
         <v>34</v>
       </c>
@@ -6682,7 +6838,7 @@
       </c>
     </row>
     <row r="39" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="13">
         <v>35</v>
       </c>
@@ -6811,7 +6967,7 @@
       </c>
     </row>
     <row r="40" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="13">
         <v>36</v>
       </c>
@@ -6940,7 +7096,7 @@
       </c>
     </row>
     <row r="41" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="13">
         <v>37</v>
       </c>
@@ -7069,7 +7225,7 @@
       </c>
     </row>
     <row r="42" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="13">
         <v>38</v>
       </c>
@@ -7198,7 +7354,7 @@
       </c>
     </row>
     <row r="43" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="13">
         <v>39</v>
       </c>
@@ -7327,7 +7483,7 @@
       </c>
     </row>
     <row r="44" spans="1:373" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="13">
         <v>40</v>
       </c>
@@ -7786,7 +7942,7 @@
       <c r="NI44" s="2"/>
     </row>
     <row r="45" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31">
+      <c r="A45" s="47">
         <v>2</v>
       </c>
       <c r="B45" s="16">
@@ -8248,7 +8404,7 @@
       <c r="NI45"/>
     </row>
     <row r="46" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="13">
         <v>2</v>
       </c>
@@ -8378,7 +8534,7 @@
       </c>
     </row>
     <row r="47" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="13">
         <v>3</v>
       </c>
@@ -8508,7 +8664,7 @@
       </c>
     </row>
     <row r="48" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="13">
         <v>4</v>
       </c>
@@ -8638,7 +8794,7 @@
       </c>
     </row>
     <row r="49" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="13">
         <v>5</v>
       </c>
@@ -8768,7 +8924,7 @@
       </c>
     </row>
     <row r="50" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="13">
         <v>6</v>
       </c>
@@ -8898,7 +9054,7 @@
       </c>
     </row>
     <row r="51" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="13">
         <v>7</v>
       </c>
@@ -9028,7 +9184,7 @@
       </c>
     </row>
     <row r="52" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="13">
         <v>8</v>
       </c>
@@ -9158,7 +9314,7 @@
       </c>
     </row>
     <row r="53" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="13">
         <v>9</v>
       </c>
@@ -9288,7 +9444,7 @@
       </c>
     </row>
     <row r="54" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="13">
         <v>10</v>
       </c>
@@ -9418,7 +9574,7 @@
       </c>
     </row>
     <row r="55" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="13">
         <v>11</v>
       </c>
@@ -9548,7 +9704,7 @@
       </c>
     </row>
     <row r="56" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="13">
         <v>12</v>
       </c>
@@ -9678,7 +9834,7 @@
       </c>
     </row>
     <row r="57" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="13">
         <v>13</v>
       </c>
@@ -9808,7 +9964,7 @@
       </c>
     </row>
     <row r="58" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="13">
         <v>14</v>
       </c>
@@ -9938,7 +10094,7 @@
       </c>
     </row>
     <row r="59" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="13">
         <v>15</v>
       </c>
@@ -10068,7 +10224,7 @@
       </c>
     </row>
     <row r="60" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="13">
         <v>16</v>
       </c>
@@ -10198,7 +10354,7 @@
       </c>
     </row>
     <row r="61" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="13">
         <v>17</v>
       </c>
@@ -10328,7 +10484,7 @@
       </c>
     </row>
     <row r="62" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="13">
         <v>18</v>
       </c>
@@ -10458,7 +10614,7 @@
       </c>
     </row>
     <row r="63" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="13">
         <v>19</v>
       </c>
@@ -10588,7 +10744,7 @@
       </c>
     </row>
     <row r="64" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="13">
         <v>20</v>
       </c>
@@ -10718,7 +10874,7 @@
       </c>
     </row>
     <row r="65" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="13">
         <v>21</v>
       </c>
@@ -10848,7 +11004,7 @@
       </c>
     </row>
     <row r="66" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="13">
         <v>22</v>
       </c>
@@ -10978,7 +11134,7 @@
       </c>
     </row>
     <row r="67" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="13">
         <v>23</v>
       </c>
@@ -11108,7 +11264,7 @@
       </c>
     </row>
     <row r="68" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="13">
         <v>24</v>
       </c>
@@ -11238,7 +11394,7 @@
       </c>
     </row>
     <row r="69" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="32"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="13">
         <v>25</v>
       </c>
@@ -11368,7 +11524,7 @@
       </c>
     </row>
     <row r="70" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="32"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="13">
         <v>26</v>
       </c>
@@ -11498,7 +11654,7 @@
       </c>
     </row>
     <row r="71" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="32"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="13">
         <v>27</v>
       </c>
@@ -11628,7 +11784,7 @@
       </c>
     </row>
     <row r="72" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="32"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="13">
         <v>28</v>
       </c>
@@ -11758,7 +11914,7 @@
       </c>
     </row>
     <row r="73" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="13">
         <v>29</v>
       </c>
@@ -11888,7 +12044,7 @@
       </c>
     </row>
     <row r="74" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="13">
         <v>30</v>
       </c>
@@ -12018,7 +12174,7 @@
       </c>
     </row>
     <row r="75" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="13">
         <v>31</v>
       </c>
@@ -12148,14 +12304,14 @@
       </c>
     </row>
     <row r="76" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="16">
         <v>32</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="45">
+      <c r="D76" s="35">
         <v>0.75</v>
       </c>
       <c r="E76" s="18">
@@ -12607,14 +12763,14 @@
       <c r="NI76" s="2"/>
     </row>
     <row r="77" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="13">
         <v>33</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="41">
         <v>0.7</v>
       </c>
       <c r="E77" s="4">
@@ -12736,14 +12892,14 @@
       </c>
     </row>
     <row r="78" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="13">
         <v>34</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="42">
         <v>0.5</v>
       </c>
       <c r="E78" s="4">
@@ -12865,14 +13021,14 @@
       </c>
     </row>
     <row r="79" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="13">
         <v>35</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="51">
+      <c r="D79" s="41">
         <v>0.7</v>
       </c>
       <c r="E79" s="4">
@@ -12994,14 +13150,14 @@
       </c>
     </row>
     <row r="80" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="13">
         <v>36</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="43">
         <v>0.65</v>
       </c>
       <c r="E80" s="4">
@@ -13123,14 +13279,14 @@
       </c>
     </row>
     <row r="81" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="13">
         <v>37</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D81" s="54">
+      <c r="D81" s="44">
         <v>0.6</v>
       </c>
       <c r="E81" s="4">
@@ -13252,14 +13408,14 @@
       </c>
     </row>
     <row r="82" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="13">
         <v>38</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D82" s="43">
         <v>0.65</v>
       </c>
       <c r="E82" s="4">
@@ -13381,14 +13537,14 @@
       </c>
     </row>
     <row r="83" spans="1:373" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="13">
         <v>39</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="54">
+      <c r="D83" s="44">
         <v>0.6</v>
       </c>
       <c r="E83" s="4">
@@ -13510,14 +13666,14 @@
       </c>
     </row>
     <row r="84" spans="1:373" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="20">
         <v>40</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D84" s="55">
+      <c r="D84" s="45">
         <v>0.55000000000000004</v>
       </c>
       <c r="E84" s="6">
@@ -13969,7 +14125,7 @@
       <c r="NI84" s="2"/>
     </row>
     <row r="85" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="34">
+      <c r="A85" s="46">
         <v>3</v>
       </c>
       <c r="B85" s="13">
@@ -13982,94 +14138,94 @@
       <c r="D85" s="3">
         <v>0.7</v>
       </c>
-      <c r="E85" s="43">
-        <v>0</v>
-      </c>
-      <c r="F85" s="43">
-        <v>0</v>
-      </c>
-      <c r="G85" s="43">
-        <v>0</v>
-      </c>
-      <c r="H85" s="43">
-        <v>0</v>
-      </c>
-      <c r="I85" s="43">
-        <v>0</v>
-      </c>
-      <c r="J85" s="43">
-        <v>0</v>
-      </c>
-      <c r="K85" s="43">
-        <v>0</v>
-      </c>
-      <c r="L85" s="43">
-        <v>0</v>
-      </c>
-      <c r="M85" s="43">
-        <v>0</v>
-      </c>
-      <c r="N85" s="43">
-        <v>0</v>
-      </c>
-      <c r="O85" s="43">
-        <v>0</v>
-      </c>
-      <c r="P85" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="43">
-        <v>0</v>
-      </c>
-      <c r="R85" s="43">
-        <v>0</v>
-      </c>
-      <c r="S85" s="43">
-        <v>0</v>
-      </c>
-      <c r="T85" s="43">
-        <v>0</v>
-      </c>
-      <c r="U85" s="43">
-        <v>0</v>
-      </c>
-      <c r="V85" s="43">
-        <v>0</v>
-      </c>
-      <c r="W85" s="43">
-        <v>0</v>
-      </c>
-      <c r="X85" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="43">
+      <c r="E85" s="33">
+        <v>0</v>
+      </c>
+      <c r="F85" s="33">
+        <v>0</v>
+      </c>
+      <c r="G85" s="33">
+        <v>0</v>
+      </c>
+      <c r="H85" s="33">
+        <v>0</v>
+      </c>
+      <c r="I85" s="33">
+        <v>0</v>
+      </c>
+      <c r="J85" s="33">
+        <v>0</v>
+      </c>
+      <c r="K85" s="33">
+        <v>0</v>
+      </c>
+      <c r="L85" s="33">
+        <v>0</v>
+      </c>
+      <c r="M85" s="33">
+        <v>0</v>
+      </c>
+      <c r="N85" s="33">
+        <v>0</v>
+      </c>
+      <c r="O85" s="33">
+        <v>0</v>
+      </c>
+      <c r="P85" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="33">
+        <v>0</v>
+      </c>
+      <c r="R85" s="33">
+        <v>0</v>
+      </c>
+      <c r="S85" s="33">
+        <v>0</v>
+      </c>
+      <c r="T85" s="33">
+        <v>0</v>
+      </c>
+      <c r="U85" s="33">
+        <v>0</v>
+      </c>
+      <c r="V85" s="33">
+        <v>0</v>
+      </c>
+      <c r="W85" s="33">
+        <v>0</v>
+      </c>
+      <c r="X85" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="33">
         <v>0</v>
       </c>
       <c r="AI85" s="27">
@@ -14096,7 +14252,7 @@
       <c r="AP85" s="18">
         <v>0</v>
       </c>
-      <c r="AQ85" s="44">
+      <c r="AQ85" s="34">
         <v>0</v>
       </c>
       <c r="AR85"/>
@@ -14431,7 +14587,7 @@
       <c r="NI85"/>
     </row>
     <row r="86" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A86" s="34"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="13">
         <v>2</v>
       </c>
@@ -14561,7 +14717,7 @@
       </c>
     </row>
     <row r="87" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A87" s="34"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="13">
         <v>3</v>
       </c>
@@ -14691,7 +14847,7 @@
       </c>
     </row>
     <row r="88" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A88" s="34"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="13">
         <v>4</v>
       </c>
@@ -14821,7 +14977,7 @@
       </c>
     </row>
     <row r="89" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A89" s="34"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="13">
         <v>5</v>
       </c>
@@ -14951,7 +15107,7 @@
       </c>
     </row>
     <row r="90" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A90" s="34"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="13">
         <v>6</v>
       </c>
@@ -15081,7 +15237,7 @@
       </c>
     </row>
     <row r="91" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A91" s="34"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="13">
         <v>7</v>
       </c>
@@ -15211,7 +15367,7 @@
       </c>
     </row>
     <row r="92" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A92" s="34"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="13">
         <v>8</v>
       </c>
@@ -15341,7 +15497,7 @@
       </c>
     </row>
     <row r="93" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A93" s="34"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="13">
         <v>9</v>
       </c>
@@ -15471,7 +15627,7 @@
       </c>
     </row>
     <row r="94" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A94" s="34"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="13">
         <v>10</v>
       </c>
@@ -15601,7 +15757,7 @@
       </c>
     </row>
     <row r="95" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A95" s="34"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="13">
         <v>11</v>
       </c>
@@ -15731,7 +15887,7 @@
       </c>
     </row>
     <row r="96" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A96" s="34"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="13">
         <v>12</v>
       </c>
@@ -15861,7 +16017,7 @@
       </c>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A97" s="34"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="13">
         <v>13</v>
       </c>
@@ -15991,7 +16147,7 @@
       </c>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A98" s="34"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="13">
         <v>14</v>
       </c>
@@ -16121,7 +16277,7 @@
       </c>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A99" s="34"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="13">
         <v>15</v>
       </c>
@@ -16251,7 +16407,7 @@
       </c>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A100" s="34"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="13">
         <v>16</v>
       </c>
@@ -16381,7 +16537,7 @@
       </c>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A101" s="34"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="13">
         <v>17</v>
       </c>
@@ -16511,7 +16667,7 @@
       </c>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A102" s="34"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="13">
         <v>18</v>
       </c>
@@ -16641,7 +16797,7 @@
       </c>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A103" s="34"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="13">
         <v>19</v>
       </c>
@@ -16771,7 +16927,7 @@
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A104" s="34"/>
+      <c r="A104" s="46"/>
       <c r="B104" s="13">
         <v>20</v>
       </c>
@@ -16901,7 +17057,7 @@
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="13">
         <v>21</v>
       </c>
@@ -17031,7 +17187,7 @@
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A106" s="34"/>
+      <c r="A106" s="46"/>
       <c r="B106" s="13">
         <v>22</v>
       </c>
@@ -17161,7 +17317,7 @@
       </c>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A107" s="34"/>
+      <c r="A107" s="46"/>
       <c r="B107" s="13">
         <v>23</v>
       </c>
@@ -17291,7 +17447,7 @@
       </c>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A108" s="34"/>
+      <c r="A108" s="46"/>
       <c r="B108" s="13">
         <v>24</v>
       </c>
@@ -17421,7 +17577,7 @@
       </c>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A109" s="34"/>
+      <c r="A109" s="46"/>
       <c r="B109" s="13">
         <v>25</v>
       </c>
@@ -17551,7 +17707,7 @@
       </c>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
+      <c r="A110" s="46"/>
       <c r="B110" s="13">
         <v>26</v>
       </c>
@@ -17681,7 +17837,7 @@
       </c>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
+      <c r="A111" s="46"/>
       <c r="B111" s="13">
         <v>27</v>
       </c>
@@ -17811,7 +17967,7 @@
       </c>
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
+      <c r="A112" s="46"/>
       <c r="B112" s="13">
         <v>28</v>
       </c>
@@ -17941,7 +18097,7 @@
       </c>
     </row>
     <row r="113" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A113" s="34"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="13">
         <v>29</v>
       </c>
@@ -18071,7 +18227,7 @@
       </c>
     </row>
     <row r="114" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A114" s="34"/>
+      <c r="A114" s="46"/>
       <c r="B114" s="13">
         <v>30</v>
       </c>
@@ -18201,7 +18357,7 @@
       </c>
     </row>
     <row r="115" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A115" s="34"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="13">
         <v>31</v>
       </c>
@@ -18331,14 +18487,14 @@
       </c>
     </row>
     <row r="116" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="34"/>
+      <c r="A116" s="46"/>
       <c r="B116" s="16">
         <v>32</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D116" s="45">
+      <c r="D116" s="35">
         <v>0.7</v>
       </c>
       <c r="E116" s="18">
@@ -18790,14 +18946,14 @@
       <c r="NI116" s="2"/>
     </row>
     <row r="117" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A117" s="34"/>
+      <c r="A117" s="46"/>
       <c r="B117" s="13">
         <v>33</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D117" s="46">
+      <c r="D117" s="36">
         <v>0.65</v>
       </c>
       <c r="E117" s="4">
@@ -18919,14 +19075,14 @@
       </c>
     </row>
     <row r="118" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A118" s="34"/>
+      <c r="A118" s="46"/>
       <c r="B118" s="13">
         <v>34</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="47">
+      <c r="D118" s="37">
         <v>0.45</v>
       </c>
       <c r="E118" s="4">
@@ -19048,14 +19204,14 @@
       </c>
     </row>
     <row r="119" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A119" s="34"/>
+      <c r="A119" s="46"/>
       <c r="B119" s="13">
         <v>35</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D119" s="46">
+      <c r="D119" s="36">
         <v>0.65</v>
       </c>
       <c r="E119" s="4">
@@ -19177,14 +19333,14 @@
       </c>
     </row>
     <row r="120" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A120" s="34"/>
+      <c r="A120" s="46"/>
       <c r="B120" s="13">
         <v>36</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D120" s="48">
+      <c r="D120" s="38">
         <v>0.6</v>
       </c>
       <c r="E120" s="4">
@@ -19306,14 +19462,14 @@
       </c>
     </row>
     <row r="121" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
+      <c r="A121" s="46"/>
       <c r="B121" s="13">
         <v>37</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D121" s="49">
+      <c r="D121" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E121" s="4">
@@ -19435,14 +19591,14 @@
       </c>
     </row>
     <row r="122" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A122" s="34"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="13">
         <v>38</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D122" s="48">
+      <c r="D122" s="38">
         <v>0.6</v>
       </c>
       <c r="E122" s="4">
@@ -19564,14 +19720,14 @@
       </c>
     </row>
     <row r="123" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A123" s="34"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="13">
         <v>39</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D123" s="49">
+      <c r="D123" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E123" s="4">
@@ -19693,14 +19849,14 @@
       </c>
     </row>
     <row r="124" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A124" s="34"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="13">
         <v>40</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D124" s="50">
+      <c r="D124" s="40">
         <v>0.5</v>
       </c>
       <c r="E124" s="4">
@@ -19822,7 +19978,7 @@
       </c>
     </row>
     <row r="125" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="31">
+      <c r="A125" s="47">
         <v>4</v>
       </c>
       <c r="B125" s="16">
@@ -19835,94 +19991,94 @@
       <c r="D125" s="27">
         <v>0.7</v>
       </c>
-      <c r="E125" s="43">
-        <v>0</v>
-      </c>
-      <c r="F125" s="43">
-        <v>0</v>
-      </c>
-      <c r="G125" s="43">
-        <v>0</v>
-      </c>
-      <c r="H125" s="43">
-        <v>0</v>
-      </c>
-      <c r="I125" s="43">
-        <v>0</v>
-      </c>
-      <c r="J125" s="43">
-        <v>0</v>
-      </c>
-      <c r="K125" s="43">
-        <v>0</v>
-      </c>
-      <c r="L125" s="43">
-        <v>0</v>
-      </c>
-      <c r="M125" s="43">
-        <v>0</v>
-      </c>
-      <c r="N125" s="43">
-        <v>0</v>
-      </c>
-      <c r="O125" s="43">
-        <v>0</v>
-      </c>
-      <c r="P125" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="43">
-        <v>0</v>
-      </c>
-      <c r="R125" s="43">
-        <v>0</v>
-      </c>
-      <c r="S125" s="43">
-        <v>0</v>
-      </c>
-      <c r="T125" s="43">
-        <v>0</v>
-      </c>
-      <c r="U125" s="43">
-        <v>0</v>
-      </c>
-      <c r="V125" s="43">
-        <v>0</v>
-      </c>
-      <c r="W125" s="43">
-        <v>0</v>
-      </c>
-      <c r="X125" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y125" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG125" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH125" s="43">
+      <c r="E125" s="33">
+        <v>0</v>
+      </c>
+      <c r="F125" s="33">
+        <v>0</v>
+      </c>
+      <c r="G125" s="33">
+        <v>0</v>
+      </c>
+      <c r="H125" s="33">
+        <v>0</v>
+      </c>
+      <c r="I125" s="33">
+        <v>0</v>
+      </c>
+      <c r="J125" s="33">
+        <v>0</v>
+      </c>
+      <c r="K125" s="33">
+        <v>0</v>
+      </c>
+      <c r="L125" s="33">
+        <v>0</v>
+      </c>
+      <c r="M125" s="33">
+        <v>0</v>
+      </c>
+      <c r="N125" s="33">
+        <v>0</v>
+      </c>
+      <c r="O125" s="33">
+        <v>0</v>
+      </c>
+      <c r="P125" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="33">
+        <v>0</v>
+      </c>
+      <c r="R125" s="33">
+        <v>0</v>
+      </c>
+      <c r="S125" s="33">
+        <v>0</v>
+      </c>
+      <c r="T125" s="33">
+        <v>0</v>
+      </c>
+      <c r="U125" s="33">
+        <v>0</v>
+      </c>
+      <c r="V125" s="33">
+        <v>0</v>
+      </c>
+      <c r="W125" s="33">
+        <v>0</v>
+      </c>
+      <c r="X125" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="33">
         <v>0</v>
       </c>
       <c r="AI125" s="27">
@@ -19949,7 +20105,7 @@
       <c r="AP125" s="18">
         <v>0</v>
       </c>
-      <c r="AQ125" s="44">
+      <c r="AQ125" s="34">
         <v>0</v>
       </c>
       <c r="AR125"/>
@@ -20284,7 +20440,7 @@
       <c r="NI125"/>
     </row>
     <row r="126" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
+      <c r="A126" s="48"/>
       <c r="B126" s="13">
         <v>2</v>
       </c>
@@ -20414,7 +20570,7 @@
       </c>
     </row>
     <row r="127" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A127" s="32"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="13">
         <v>3</v>
       </c>
@@ -20544,7 +20700,7 @@
       </c>
     </row>
     <row r="128" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A128" s="32"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="13">
         <v>4</v>
       </c>
@@ -20674,7 +20830,7 @@
       </c>
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A129" s="32"/>
+      <c r="A129" s="48"/>
       <c r="B129" s="13">
         <v>5</v>
       </c>
@@ -20804,7 +20960,7 @@
       </c>
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A130" s="32"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="13">
         <v>6</v>
       </c>
@@ -20934,7 +21090,7 @@
       </c>
     </row>
     <row r="131" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A131" s="32"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="13">
         <v>7</v>
       </c>
@@ -21064,7 +21220,7 @@
       </c>
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A132" s="32"/>
+      <c r="A132" s="48"/>
       <c r="B132" s="13">
         <v>8</v>
       </c>
@@ -21194,7 +21350,7 @@
       </c>
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
+      <c r="A133" s="48"/>
       <c r="B133" s="13">
         <v>9</v>
       </c>
@@ -21324,7 +21480,7 @@
       </c>
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A134" s="32"/>
+      <c r="A134" s="48"/>
       <c r="B134" s="13">
         <v>10</v>
       </c>
@@ -21454,7 +21610,7 @@
       </c>
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A135" s="32"/>
+      <c r="A135" s="48"/>
       <c r="B135" s="13">
         <v>11</v>
       </c>
@@ -21584,7 +21740,7 @@
       </c>
     </row>
     <row r="136" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A136" s="32"/>
+      <c r="A136" s="48"/>
       <c r="B136" s="13">
         <v>12</v>
       </c>
@@ -21714,7 +21870,7 @@
       </c>
     </row>
     <row r="137" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A137" s="32"/>
+      <c r="A137" s="48"/>
       <c r="B137" s="13">
         <v>13</v>
       </c>
@@ -21844,7 +22000,7 @@
       </c>
     </row>
     <row r="138" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A138" s="32"/>
+      <c r="A138" s="48"/>
       <c r="B138" s="13">
         <v>14</v>
       </c>
@@ -21974,7 +22130,7 @@
       </c>
     </row>
     <row r="139" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A139" s="32"/>
+      <c r="A139" s="48"/>
       <c r="B139" s="13">
         <v>15</v>
       </c>
@@ -22104,7 +22260,7 @@
       </c>
     </row>
     <row r="140" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
+      <c r="A140" s="48"/>
       <c r="B140" s="13">
         <v>16</v>
       </c>
@@ -22234,7 +22390,7 @@
       </c>
     </row>
     <row r="141" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A141" s="32"/>
+      <c r="A141" s="48"/>
       <c r="B141" s="13">
         <v>17</v>
       </c>
@@ -22364,7 +22520,7 @@
       </c>
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A142" s="32"/>
+      <c r="A142" s="48"/>
       <c r="B142" s="13">
         <v>18</v>
       </c>
@@ -22494,7 +22650,7 @@
       </c>
     </row>
     <row r="143" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A143" s="32"/>
+      <c r="A143" s="48"/>
       <c r="B143" s="13">
         <v>19</v>
       </c>
@@ -22624,7 +22780,7 @@
       </c>
     </row>
     <row r="144" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
+      <c r="A144" s="48"/>
       <c r="B144" s="13">
         <v>20</v>
       </c>
@@ -22754,7 +22910,7 @@
       </c>
     </row>
     <row r="145" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A145" s="32"/>
+      <c r="A145" s="48"/>
       <c r="B145" s="13">
         <v>21</v>
       </c>
@@ -22884,7 +23040,7 @@
       </c>
     </row>
     <row r="146" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A146" s="32"/>
+      <c r="A146" s="48"/>
       <c r="B146" s="13">
         <v>22</v>
       </c>
@@ -23014,7 +23170,7 @@
       </c>
     </row>
     <row r="147" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="13">
         <v>23</v>
       </c>
@@ -23144,7 +23300,7 @@
       </c>
     </row>
     <row r="148" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A148" s="32"/>
+      <c r="A148" s="48"/>
       <c r="B148" s="13">
         <v>24</v>
       </c>
@@ -23274,7 +23430,7 @@
       </c>
     </row>
     <row r="149" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A149" s="32"/>
+      <c r="A149" s="48"/>
       <c r="B149" s="13">
         <v>25</v>
       </c>
@@ -23404,7 +23560,7 @@
       </c>
     </row>
     <row r="150" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A150" s="32"/>
+      <c r="A150" s="48"/>
       <c r="B150" s="13">
         <v>26</v>
       </c>
@@ -23534,7 +23690,7 @@
       </c>
     </row>
     <row r="151" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A151" s="32"/>
+      <c r="A151" s="48"/>
       <c r="B151" s="13">
         <v>27</v>
       </c>
@@ -23664,7 +23820,7 @@
       </c>
     </row>
     <row r="152" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A152" s="32"/>
+      <c r="A152" s="48"/>
       <c r="B152" s="13">
         <v>28</v>
       </c>
@@ -23794,7 +23950,7 @@
       </c>
     </row>
     <row r="153" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A153" s="32"/>
+      <c r="A153" s="48"/>
       <c r="B153" s="13">
         <v>29</v>
       </c>
@@ -23924,7 +24080,7 @@
       </c>
     </row>
     <row r="154" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A154" s="32"/>
+      <c r="A154" s="48"/>
       <c r="B154" s="13">
         <v>30</v>
       </c>
@@ -24054,7 +24210,7 @@
       </c>
     </row>
     <row r="155" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A155" s="32"/>
+      <c r="A155" s="48"/>
       <c r="B155" s="13">
         <v>31</v>
       </c>
@@ -24184,14 +24340,14 @@
       </c>
     </row>
     <row r="156" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="32"/>
+      <c r="A156" s="48"/>
       <c r="B156" s="16">
         <v>32</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D156" s="45">
+      <c r="D156" s="35">
         <v>0.7</v>
       </c>
       <c r="E156" s="18">
@@ -24643,14 +24799,14 @@
       <c r="NI156" s="2"/>
     </row>
     <row r="157" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A157" s="32"/>
+      <c r="A157" s="48"/>
       <c r="B157" s="13">
         <v>33</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D157" s="46">
+      <c r="D157" s="36">
         <v>0.65</v>
       </c>
       <c r="E157" s="4">
@@ -24772,14 +24928,14 @@
       </c>
     </row>
     <row r="158" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A158" s="32"/>
+      <c r="A158" s="48"/>
       <c r="B158" s="13">
         <v>34</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D158" s="47">
+      <c r="D158" s="37">
         <v>0.45</v>
       </c>
       <c r="E158" s="4">
@@ -24901,14 +25057,14 @@
       </c>
     </row>
     <row r="159" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A159" s="32"/>
+      <c r="A159" s="48"/>
       <c r="B159" s="13">
         <v>35</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D159" s="46">
+      <c r="D159" s="36">
         <v>0.65</v>
       </c>
       <c r="E159" s="4">
@@ -25030,14 +25186,14 @@
       </c>
     </row>
     <row r="160" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A160" s="32"/>
+      <c r="A160" s="48"/>
       <c r="B160" s="13">
         <v>36</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D160" s="48">
+      <c r="D160" s="38">
         <v>0.6</v>
       </c>
       <c r="E160" s="4">
@@ -25159,14 +25315,14 @@
       </c>
     </row>
     <row r="161" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A161" s="32"/>
+      <c r="A161" s="48"/>
       <c r="B161" s="13">
         <v>37</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D161" s="49">
+      <c r="D161" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E161" s="4">
@@ -25288,14 +25444,14 @@
       </c>
     </row>
     <row r="162" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A162" s="32"/>
+      <c r="A162" s="48"/>
       <c r="B162" s="13">
         <v>38</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D162" s="48">
+      <c r="D162" s="38">
         <v>0.6</v>
       </c>
       <c r="E162" s="4">
@@ -25417,14 +25573,14 @@
       </c>
     </row>
     <row r="163" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A163" s="32"/>
+      <c r="A163" s="48"/>
       <c r="B163" s="13">
         <v>39</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D163" s="49">
+      <c r="D163" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E163" s="4">
@@ -25546,14 +25702,14 @@
       </c>
     </row>
     <row r="164" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A164" s="33"/>
+      <c r="A164" s="49"/>
       <c r="B164" s="20">
         <v>40</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D164" s="50">
+      <c r="D164" s="40">
         <v>0.5</v>
       </c>
       <c r="E164" s="6">
@@ -25675,7 +25831,7 @@
       </c>
     </row>
     <row r="165" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="34">
+      <c r="A165" s="46">
         <v>5</v>
       </c>
       <c r="B165" s="13">
@@ -25688,94 +25844,94 @@
       <c r="D165" s="3">
         <v>0.7</v>
       </c>
-      <c r="E165" s="43">
-        <v>0</v>
-      </c>
-      <c r="F165" s="43">
-        <v>0</v>
-      </c>
-      <c r="G165" s="43">
-        <v>0</v>
-      </c>
-      <c r="H165" s="43">
-        <v>0</v>
-      </c>
-      <c r="I165" s="43">
-        <v>0</v>
-      </c>
-      <c r="J165" s="43">
-        <v>0</v>
-      </c>
-      <c r="K165" s="43">
-        <v>0</v>
-      </c>
-      <c r="L165" s="43">
-        <v>0</v>
-      </c>
-      <c r="M165" s="43">
-        <v>0</v>
-      </c>
-      <c r="N165" s="43">
-        <v>0</v>
-      </c>
-      <c r="O165" s="43">
-        <v>0</v>
-      </c>
-      <c r="P165" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q165" s="43">
-        <v>0</v>
-      </c>
-      <c r="R165" s="43">
-        <v>0</v>
-      </c>
-      <c r="S165" s="43">
-        <v>0</v>
-      </c>
-      <c r="T165" s="43">
-        <v>0</v>
-      </c>
-      <c r="U165" s="43">
-        <v>0</v>
-      </c>
-      <c r="V165" s="43">
-        <v>0</v>
-      </c>
-      <c r="W165" s="43">
-        <v>0</v>
-      </c>
-      <c r="X165" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y165" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG165" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH165" s="43">
+      <c r="E165" s="33">
+        <v>0</v>
+      </c>
+      <c r="F165" s="33">
+        <v>0</v>
+      </c>
+      <c r="G165" s="33">
+        <v>0</v>
+      </c>
+      <c r="H165" s="33">
+        <v>0</v>
+      </c>
+      <c r="I165" s="33">
+        <v>0</v>
+      </c>
+      <c r="J165" s="33">
+        <v>0</v>
+      </c>
+      <c r="K165" s="33">
+        <v>0</v>
+      </c>
+      <c r="L165" s="33">
+        <v>0</v>
+      </c>
+      <c r="M165" s="33">
+        <v>0</v>
+      </c>
+      <c r="N165" s="33">
+        <v>0</v>
+      </c>
+      <c r="O165" s="33">
+        <v>0</v>
+      </c>
+      <c r="P165" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="33">
+        <v>0</v>
+      </c>
+      <c r="R165" s="33">
+        <v>0</v>
+      </c>
+      <c r="S165" s="33">
+        <v>0</v>
+      </c>
+      <c r="T165" s="33">
+        <v>0</v>
+      </c>
+      <c r="U165" s="33">
+        <v>0</v>
+      </c>
+      <c r="V165" s="33">
+        <v>0</v>
+      </c>
+      <c r="W165" s="33">
+        <v>0</v>
+      </c>
+      <c r="X165" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH165" s="33">
         <v>0</v>
       </c>
       <c r="AI165" s="27">
@@ -25802,7 +25958,7 @@
       <c r="AP165" s="18">
         <v>0</v>
       </c>
-      <c r="AQ165" s="44">
+      <c r="AQ165" s="34">
         <v>0</v>
       </c>
       <c r="AR165"/>
@@ -26137,7 +26293,7 @@
       <c r="NI165"/>
     </row>
     <row r="166" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A166" s="34"/>
+      <c r="A166" s="46"/>
       <c r="B166" s="13">
         <v>2</v>
       </c>
@@ -26267,7 +26423,7 @@
       </c>
     </row>
     <row r="167" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A167" s="34"/>
+      <c r="A167" s="46"/>
       <c r="B167" s="13">
         <v>3</v>
       </c>
@@ -26397,7 +26553,7 @@
       </c>
     </row>
     <row r="168" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A168" s="34"/>
+      <c r="A168" s="46"/>
       <c r="B168" s="13">
         <v>4</v>
       </c>
@@ -26527,7 +26683,7 @@
       </c>
     </row>
     <row r="169" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A169" s="34"/>
+      <c r="A169" s="46"/>
       <c r="B169" s="13">
         <v>5</v>
       </c>
@@ -26657,7 +26813,7 @@
       </c>
     </row>
     <row r="170" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A170" s="34"/>
+      <c r="A170" s="46"/>
       <c r="B170" s="13">
         <v>6</v>
       </c>
@@ -26787,7 +26943,7 @@
       </c>
     </row>
     <row r="171" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A171" s="34"/>
+      <c r="A171" s="46"/>
       <c r="B171" s="13">
         <v>7</v>
       </c>
@@ -26917,7 +27073,7 @@
       </c>
     </row>
     <row r="172" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A172" s="34"/>
+      <c r="A172" s="46"/>
       <c r="B172" s="13">
         <v>8</v>
       </c>
@@ -27047,7 +27203,7 @@
       </c>
     </row>
     <row r="173" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A173" s="34"/>
+      <c r="A173" s="46"/>
       <c r="B173" s="13">
         <v>9</v>
       </c>
@@ -27177,7 +27333,7 @@
       </c>
     </row>
     <row r="174" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A174" s="34"/>
+      <c r="A174" s="46"/>
       <c r="B174" s="13">
         <v>10</v>
       </c>
@@ -27307,7 +27463,7 @@
       </c>
     </row>
     <row r="175" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A175" s="34"/>
+      <c r="A175" s="46"/>
       <c r="B175" s="13">
         <v>11</v>
       </c>
@@ -27437,7 +27593,7 @@
       </c>
     </row>
     <row r="176" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A176" s="34"/>
+      <c r="A176" s="46"/>
       <c r="B176" s="13">
         <v>12</v>
       </c>
@@ -27567,7 +27723,7 @@
       </c>
     </row>
     <row r="177" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A177" s="34"/>
+      <c r="A177" s="46"/>
       <c r="B177" s="13">
         <v>13</v>
       </c>
@@ -27697,7 +27853,7 @@
       </c>
     </row>
     <row r="178" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A178" s="34"/>
+      <c r="A178" s="46"/>
       <c r="B178" s="13">
         <v>14</v>
       </c>
@@ -27827,7 +27983,7 @@
       </c>
     </row>
     <row r="179" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A179" s="34"/>
+      <c r="A179" s="46"/>
       <c r="B179" s="13">
         <v>15</v>
       </c>
@@ -27957,7 +28113,7 @@
       </c>
     </row>
     <row r="180" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A180" s="34"/>
+      <c r="A180" s="46"/>
       <c r="B180" s="13">
         <v>16</v>
       </c>
@@ -28087,7 +28243,7 @@
       </c>
     </row>
     <row r="181" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A181" s="34"/>
+      <c r="A181" s="46"/>
       <c r="B181" s="13">
         <v>17</v>
       </c>
@@ -28217,7 +28373,7 @@
       </c>
     </row>
     <row r="182" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A182" s="34"/>
+      <c r="A182" s="46"/>
       <c r="B182" s="13">
         <v>18</v>
       </c>
@@ -28347,7 +28503,7 @@
       </c>
     </row>
     <row r="183" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A183" s="34"/>
+      <c r="A183" s="46"/>
       <c r="B183" s="13">
         <v>19</v>
       </c>
@@ -28477,7 +28633,7 @@
       </c>
     </row>
     <row r="184" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A184" s="34"/>
+      <c r="A184" s="46"/>
       <c r="B184" s="13">
         <v>20</v>
       </c>
@@ -28607,7 +28763,7 @@
       </c>
     </row>
     <row r="185" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A185" s="34"/>
+      <c r="A185" s="46"/>
       <c r="B185" s="13">
         <v>21</v>
       </c>
@@ -28737,7 +28893,7 @@
       </c>
     </row>
     <row r="186" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A186" s="34"/>
+      <c r="A186" s="46"/>
       <c r="B186" s="13">
         <v>22</v>
       </c>
@@ -28867,7 +29023,7 @@
       </c>
     </row>
     <row r="187" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A187" s="34"/>
+      <c r="A187" s="46"/>
       <c r="B187" s="13">
         <v>23</v>
       </c>
@@ -28997,7 +29153,7 @@
       </c>
     </row>
     <row r="188" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A188" s="34"/>
+      <c r="A188" s="46"/>
       <c r="B188" s="13">
         <v>24</v>
       </c>
@@ -29127,7 +29283,7 @@
       </c>
     </row>
     <row r="189" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A189" s="34"/>
+      <c r="A189" s="46"/>
       <c r="B189" s="13">
         <v>25</v>
       </c>
@@ -29257,7 +29413,7 @@
       </c>
     </row>
     <row r="190" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A190" s="34"/>
+      <c r="A190" s="46"/>
       <c r="B190" s="13">
         <v>26</v>
       </c>
@@ -29387,7 +29543,7 @@
       </c>
     </row>
     <row r="191" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A191" s="34"/>
+      <c r="A191" s="46"/>
       <c r="B191" s="13">
         <v>27</v>
       </c>
@@ -29517,7 +29673,7 @@
       </c>
     </row>
     <row r="192" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A192" s="34"/>
+      <c r="A192" s="46"/>
       <c r="B192" s="13">
         <v>28</v>
       </c>
@@ -29647,7 +29803,7 @@
       </c>
     </row>
     <row r="193" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A193" s="34"/>
+      <c r="A193" s="46"/>
       <c r="B193" s="13">
         <v>29</v>
       </c>
@@ -29777,7 +29933,7 @@
       </c>
     </row>
     <row r="194" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A194" s="34"/>
+      <c r="A194" s="46"/>
       <c r="B194" s="13">
         <v>30</v>
       </c>
@@ -29907,7 +30063,7 @@
       </c>
     </row>
     <row r="195" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A195" s="34"/>
+      <c r="A195" s="46"/>
       <c r="B195" s="13">
         <v>31</v>
       </c>
@@ -30037,14 +30193,14 @@
       </c>
     </row>
     <row r="196" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="34"/>
+      <c r="A196" s="46"/>
       <c r="B196" s="16">
         <v>32</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D196" s="45">
+      <c r="D196" s="35">
         <v>0.7</v>
       </c>
       <c r="E196" s="18">
@@ -30496,14 +30652,14 @@
       <c r="NI196" s="2"/>
     </row>
     <row r="197" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A197" s="34"/>
+      <c r="A197" s="46"/>
       <c r="B197" s="13">
         <v>33</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D197" s="46">
+      <c r="D197" s="36">
         <v>0.65</v>
       </c>
       <c r="E197" s="4">
@@ -30625,14 +30781,14 @@
       </c>
     </row>
     <row r="198" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A198" s="34"/>
+      <c r="A198" s="46"/>
       <c r="B198" s="13">
         <v>34</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D198" s="47">
+      <c r="D198" s="37">
         <v>0.45</v>
       </c>
       <c r="E198" s="4">
@@ -30754,14 +30910,14 @@
       </c>
     </row>
     <row r="199" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A199" s="34"/>
+      <c r="A199" s="46"/>
       <c r="B199" s="13">
         <v>35</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D199" s="46">
+      <c r="D199" s="36">
         <v>0.65</v>
       </c>
       <c r="E199" s="4">
@@ -30883,14 +31039,14 @@
       </c>
     </row>
     <row r="200" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A200" s="34"/>
+      <c r="A200" s="46"/>
       <c r="B200" s="13">
         <v>36</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D200" s="48">
+      <c r="D200" s="38">
         <v>0.6</v>
       </c>
       <c r="E200" s="4">
@@ -31012,14 +31168,14 @@
       </c>
     </row>
     <row r="201" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A201" s="34"/>
+      <c r="A201" s="46"/>
       <c r="B201" s="13">
         <v>37</v>
       </c>
       <c r="C201" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D201" s="49">
+      <c r="D201" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E201" s="4">
@@ -31141,14 +31297,14 @@
       </c>
     </row>
     <row r="202" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A202" s="34"/>
+      <c r="A202" s="46"/>
       <c r="B202" s="13">
         <v>38</v>
       </c>
       <c r="C202" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D202" s="48">
+      <c r="D202" s="38">
         <v>0.6</v>
       </c>
       <c r="E202" s="4">
@@ -31270,14 +31426,14 @@
       </c>
     </row>
     <row r="203" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A203" s="34"/>
+      <c r="A203" s="46"/>
       <c r="B203" s="13">
         <v>39</v>
       </c>
       <c r="C203" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D203" s="49">
+      <c r="D203" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E203" s="4">
@@ -31399,14 +31555,14 @@
       </c>
     </row>
     <row r="204" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A204" s="34"/>
+      <c r="A204" s="46"/>
       <c r="B204" s="13">
         <v>40</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D204" s="50">
+      <c r="D204" s="40">
         <v>0.5</v>
       </c>
       <c r="E204" s="4">
@@ -31528,7 +31684,7 @@
       </c>
     </row>
     <row r="205" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="31">
+      <c r="A205" s="47">
         <v>6</v>
       </c>
       <c r="B205" s="16">
@@ -31541,94 +31697,94 @@
       <c r="D205" s="27">
         <v>0.7</v>
       </c>
-      <c r="E205" s="43">
-        <v>0</v>
-      </c>
-      <c r="F205" s="43">
-        <v>0</v>
-      </c>
-      <c r="G205" s="43">
-        <v>0</v>
-      </c>
-      <c r="H205" s="43">
-        <v>0</v>
-      </c>
-      <c r="I205" s="43">
-        <v>0</v>
-      </c>
-      <c r="J205" s="43">
-        <v>0</v>
-      </c>
-      <c r="K205" s="43">
-        <v>0</v>
-      </c>
-      <c r="L205" s="43">
-        <v>0</v>
-      </c>
-      <c r="M205" s="43">
-        <v>0</v>
-      </c>
-      <c r="N205" s="43">
-        <v>0</v>
-      </c>
-      <c r="O205" s="43">
-        <v>0</v>
-      </c>
-      <c r="P205" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q205" s="43">
-        <v>0</v>
-      </c>
-      <c r="R205" s="43">
-        <v>0</v>
-      </c>
-      <c r="S205" s="43">
-        <v>0</v>
-      </c>
-      <c r="T205" s="43">
-        <v>0</v>
-      </c>
-      <c r="U205" s="43">
-        <v>0</v>
-      </c>
-      <c r="V205" s="43">
-        <v>0</v>
-      </c>
-      <c r="W205" s="43">
-        <v>0</v>
-      </c>
-      <c r="X205" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y205" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG205" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH205" s="43">
+      <c r="E205" s="33">
+        <v>0</v>
+      </c>
+      <c r="F205" s="33">
+        <v>0</v>
+      </c>
+      <c r="G205" s="33">
+        <v>0</v>
+      </c>
+      <c r="H205" s="33">
+        <v>0</v>
+      </c>
+      <c r="I205" s="33">
+        <v>0</v>
+      </c>
+      <c r="J205" s="33">
+        <v>0</v>
+      </c>
+      <c r="K205" s="33">
+        <v>0</v>
+      </c>
+      <c r="L205" s="33">
+        <v>0</v>
+      </c>
+      <c r="M205" s="33">
+        <v>0</v>
+      </c>
+      <c r="N205" s="33">
+        <v>0</v>
+      </c>
+      <c r="O205" s="33">
+        <v>0</v>
+      </c>
+      <c r="P205" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="33">
+        <v>0</v>
+      </c>
+      <c r="R205" s="33">
+        <v>0</v>
+      </c>
+      <c r="S205" s="33">
+        <v>0</v>
+      </c>
+      <c r="T205" s="33">
+        <v>0</v>
+      </c>
+      <c r="U205" s="33">
+        <v>0</v>
+      </c>
+      <c r="V205" s="33">
+        <v>0</v>
+      </c>
+      <c r="W205" s="33">
+        <v>0</v>
+      </c>
+      <c r="X205" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG205" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH205" s="33">
         <v>0</v>
       </c>
       <c r="AI205" s="27">
@@ -31655,7 +31811,7 @@
       <c r="AP205" s="18">
         <v>0</v>
       </c>
-      <c r="AQ205" s="44">
+      <c r="AQ205" s="34">
         <v>0</v>
       </c>
       <c r="AR205"/>
@@ -31990,7 +32146,7 @@
       <c r="NI205"/>
     </row>
     <row r="206" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A206" s="32"/>
+      <c r="A206" s="48"/>
       <c r="B206" s="13">
         <v>2</v>
       </c>
@@ -32120,7 +32276,7 @@
       </c>
     </row>
     <row r="207" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A207" s="32"/>
+      <c r="A207" s="48"/>
       <c r="B207" s="13">
         <v>3</v>
       </c>
@@ -32250,7 +32406,7 @@
       </c>
     </row>
     <row r="208" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A208" s="32"/>
+      <c r="A208" s="48"/>
       <c r="B208" s="13">
         <v>4</v>
       </c>
@@ -32380,7 +32536,7 @@
       </c>
     </row>
     <row r="209" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A209" s="32"/>
+      <c r="A209" s="48"/>
       <c r="B209" s="13">
         <v>5</v>
       </c>
@@ -32510,7 +32666,7 @@
       </c>
     </row>
     <row r="210" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
+      <c r="A210" s="48"/>
       <c r="B210" s="13">
         <v>6</v>
       </c>
@@ -32640,7 +32796,7 @@
       </c>
     </row>
     <row r="211" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A211" s="32"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="13">
         <v>7</v>
       </c>
@@ -32770,7 +32926,7 @@
       </c>
     </row>
     <row r="212" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="48"/>
       <c r="B212" s="13">
         <v>8</v>
       </c>
@@ -32900,7 +33056,7 @@
       </c>
     </row>
     <row r="213" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
+      <c r="A213" s="48"/>
       <c r="B213" s="13">
         <v>9</v>
       </c>
@@ -33030,7 +33186,7 @@
       </c>
     </row>
     <row r="214" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="13">
         <v>10</v>
       </c>
@@ -33160,7 +33316,7 @@
       </c>
     </row>
     <row r="215" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A215" s="32"/>
+      <c r="A215" s="48"/>
       <c r="B215" s="13">
         <v>11</v>
       </c>
@@ -33290,7 +33446,7 @@
       </c>
     </row>
     <row r="216" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
+      <c r="A216" s="48"/>
       <c r="B216" s="13">
         <v>12</v>
       </c>
@@ -33420,7 +33576,7 @@
       </c>
     </row>
     <row r="217" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A217" s="32"/>
+      <c r="A217" s="48"/>
       <c r="B217" s="13">
         <v>13</v>
       </c>
@@ -33550,7 +33706,7 @@
       </c>
     </row>
     <row r="218" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
+      <c r="A218" s="48"/>
       <c r="B218" s="13">
         <v>14</v>
       </c>
@@ -33680,7 +33836,7 @@
       </c>
     </row>
     <row r="219" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A219" s="32"/>
+      <c r="A219" s="48"/>
       <c r="B219" s="13">
         <v>15</v>
       </c>
@@ -33810,7 +33966,7 @@
       </c>
     </row>
     <row r="220" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A220" s="32"/>
+      <c r="A220" s="48"/>
       <c r="B220" s="13">
         <v>16</v>
       </c>
@@ -33940,7 +34096,7 @@
       </c>
     </row>
     <row r="221" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A221" s="32"/>
+      <c r="A221" s="48"/>
       <c r="B221" s="13">
         <v>17</v>
       </c>
@@ -34070,7 +34226,7 @@
       </c>
     </row>
     <row r="222" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A222" s="32"/>
+      <c r="A222" s="48"/>
       <c r="B222" s="13">
         <v>18</v>
       </c>
@@ -34200,7 +34356,7 @@
       </c>
     </row>
     <row r="223" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A223" s="32"/>
+      <c r="A223" s="48"/>
       <c r="B223" s="13">
         <v>19</v>
       </c>
@@ -34330,7 +34486,7 @@
       </c>
     </row>
     <row r="224" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A224" s="32"/>
+      <c r="A224" s="48"/>
       <c r="B224" s="13">
         <v>20</v>
       </c>
@@ -34460,7 +34616,7 @@
       </c>
     </row>
     <row r="225" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A225" s="32"/>
+      <c r="A225" s="48"/>
       <c r="B225" s="13">
         <v>21</v>
       </c>
@@ -34590,7 +34746,7 @@
       </c>
     </row>
     <row r="226" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
+      <c r="A226" s="48"/>
       <c r="B226" s="13">
         <v>22</v>
       </c>
@@ -34720,7 +34876,7 @@
       </c>
     </row>
     <row r="227" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A227" s="32"/>
+      <c r="A227" s="48"/>
       <c r="B227" s="13">
         <v>23</v>
       </c>
@@ -34850,7 +35006,7 @@
       </c>
     </row>
     <row r="228" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A228" s="32"/>
+      <c r="A228" s="48"/>
       <c r="B228" s="13">
         <v>24</v>
       </c>
@@ -34980,7 +35136,7 @@
       </c>
     </row>
     <row r="229" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A229" s="32"/>
+      <c r="A229" s="48"/>
       <c r="B229" s="13">
         <v>25</v>
       </c>
@@ -35110,7 +35266,7 @@
       </c>
     </row>
     <row r="230" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A230" s="32"/>
+      <c r="A230" s="48"/>
       <c r="B230" s="13">
         <v>26</v>
       </c>
@@ -35240,7 +35396,7 @@
       </c>
     </row>
     <row r="231" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A231" s="32"/>
+      <c r="A231" s="48"/>
       <c r="B231" s="13">
         <v>27</v>
       </c>
@@ -35370,7 +35526,7 @@
       </c>
     </row>
     <row r="232" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A232" s="32"/>
+      <c r="A232" s="48"/>
       <c r="B232" s="13">
         <v>28</v>
       </c>
@@ -35500,7 +35656,7 @@
       </c>
     </row>
     <row r="233" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A233" s="32"/>
+      <c r="A233" s="48"/>
       <c r="B233" s="13">
         <v>29</v>
       </c>
@@ -35630,7 +35786,7 @@
       </c>
     </row>
     <row r="234" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A234" s="32"/>
+      <c r="A234" s="48"/>
       <c r="B234" s="13">
         <v>30</v>
       </c>
@@ -35760,7 +35916,7 @@
       </c>
     </row>
     <row r="235" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A235" s="32"/>
+      <c r="A235" s="48"/>
       <c r="B235" s="13">
         <v>31</v>
       </c>
@@ -35890,14 +36046,14 @@
       </c>
     </row>
     <row r="236" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="32"/>
+      <c r="A236" s="48"/>
       <c r="B236" s="16">
         <v>32</v>
       </c>
       <c r="C236" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D236" s="45">
+      <c r="D236" s="35">
         <v>0.7</v>
       </c>
       <c r="E236" s="18">
@@ -36349,14 +36505,14 @@
       <c r="NI236" s="2"/>
     </row>
     <row r="237" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A237" s="32"/>
+      <c r="A237" s="48"/>
       <c r="B237" s="13">
         <v>33</v>
       </c>
       <c r="C237" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D237" s="46">
+      <c r="D237" s="36">
         <v>0.65</v>
       </c>
       <c r="E237" s="4">
@@ -36478,14 +36634,14 @@
       </c>
     </row>
     <row r="238" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A238" s="32"/>
+      <c r="A238" s="48"/>
       <c r="B238" s="13">
         <v>34</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D238" s="47">
+      <c r="D238" s="37">
         <v>0.45</v>
       </c>
       <c r="E238" s="4">
@@ -36607,14 +36763,14 @@
       </c>
     </row>
     <row r="239" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A239" s="32"/>
+      <c r="A239" s="48"/>
       <c r="B239" s="13">
         <v>35</v>
       </c>
       <c r="C239" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D239" s="46">
+      <c r="D239" s="36">
         <v>0.65</v>
       </c>
       <c r="E239" s="4">
@@ -36736,14 +36892,14 @@
       </c>
     </row>
     <row r="240" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A240" s="32"/>
+      <c r="A240" s="48"/>
       <c r="B240" s="13">
         <v>36</v>
       </c>
       <c r="C240" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D240" s="48">
+      <c r="D240" s="38">
         <v>0.6</v>
       </c>
       <c r="E240" s="4">
@@ -36865,14 +37021,14 @@
       </c>
     </row>
     <row r="241" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A241" s="32"/>
+      <c r="A241" s="48"/>
       <c r="B241" s="13">
         <v>37</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D241" s="49">
+      <c r="D241" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E241" s="4">
@@ -36994,14 +37150,14 @@
       </c>
     </row>
     <row r="242" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A242" s="32"/>
+      <c r="A242" s="48"/>
       <c r="B242" s="13">
         <v>38</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D242" s="48">
+      <c r="D242" s="38">
         <v>0.6</v>
       </c>
       <c r="E242" s="4">
@@ -37123,14 +37279,14 @@
       </c>
     </row>
     <row r="243" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A243" s="32"/>
+      <c r="A243" s="48"/>
       <c r="B243" s="13">
         <v>39</v>
       </c>
       <c r="C243" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D243" s="49">
+      <c r="D243" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="E243" s="4">
@@ -37252,14 +37408,14 @@
       </c>
     </row>
     <row r="244" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A244" s="33"/>
+      <c r="A244" s="49"/>
       <c r="B244" s="20">
         <v>40</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D244" s="50">
+      <c r="D244" s="40">
         <v>0.5</v>
       </c>
       <c r="E244" s="6">
@@ -37381,7 +37537,7 @@
       </c>
     </row>
     <row r="245" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="34">
+      <c r="A245" s="46">
         <v>7</v>
       </c>
       <c r="B245" s="13">
@@ -37394,94 +37550,94 @@
       <c r="D245" s="3">
         <v>0.8</v>
       </c>
-      <c r="E245" s="43">
-        <v>0</v>
-      </c>
-      <c r="F245" s="43">
-        <v>0</v>
-      </c>
-      <c r="G245" s="43">
-        <v>0</v>
-      </c>
-      <c r="H245" s="43">
-        <v>0</v>
-      </c>
-      <c r="I245" s="43">
-        <v>0</v>
-      </c>
-      <c r="J245" s="43">
-        <v>0</v>
-      </c>
-      <c r="K245" s="43">
-        <v>0</v>
-      </c>
-      <c r="L245" s="43">
-        <v>0</v>
-      </c>
-      <c r="M245" s="43">
-        <v>0</v>
-      </c>
-      <c r="N245" s="43">
-        <v>0</v>
-      </c>
-      <c r="O245" s="43">
-        <v>0</v>
-      </c>
-      <c r="P245" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q245" s="43">
-        <v>0</v>
-      </c>
-      <c r="R245" s="43">
-        <v>0</v>
-      </c>
-      <c r="S245" s="43">
-        <v>0</v>
-      </c>
-      <c r="T245" s="43">
-        <v>0</v>
-      </c>
-      <c r="U245" s="43">
-        <v>0</v>
-      </c>
-      <c r="V245" s="43">
-        <v>0</v>
-      </c>
-      <c r="W245" s="43">
-        <v>0</v>
-      </c>
-      <c r="X245" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y245" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG245" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH245" s="43">
+      <c r="E245" s="33">
+        <v>0</v>
+      </c>
+      <c r="F245" s="33">
+        <v>0</v>
+      </c>
+      <c r="G245" s="33">
+        <v>0</v>
+      </c>
+      <c r="H245" s="33">
+        <v>0</v>
+      </c>
+      <c r="I245" s="33">
+        <v>0</v>
+      </c>
+      <c r="J245" s="33">
+        <v>0</v>
+      </c>
+      <c r="K245" s="33">
+        <v>0</v>
+      </c>
+      <c r="L245" s="33">
+        <v>0</v>
+      </c>
+      <c r="M245" s="33">
+        <v>0</v>
+      </c>
+      <c r="N245" s="33">
+        <v>0</v>
+      </c>
+      <c r="O245" s="33">
+        <v>0</v>
+      </c>
+      <c r="P245" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q245" s="33">
+        <v>0</v>
+      </c>
+      <c r="R245" s="33">
+        <v>0</v>
+      </c>
+      <c r="S245" s="33">
+        <v>0</v>
+      </c>
+      <c r="T245" s="33">
+        <v>0</v>
+      </c>
+      <c r="U245" s="33">
+        <v>0</v>
+      </c>
+      <c r="V245" s="33">
+        <v>0</v>
+      </c>
+      <c r="W245" s="33">
+        <v>0</v>
+      </c>
+      <c r="X245" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y245" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG245" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH245" s="33">
         <v>0</v>
       </c>
       <c r="AI245" s="27">
@@ -37508,7 +37664,7 @@
       <c r="AP245" s="18">
         <v>0</v>
       </c>
-      <c r="AQ245" s="44">
+      <c r="AQ245" s="34">
         <v>0</v>
       </c>
       <c r="AR245"/>
@@ -37843,7 +37999,7 @@
       <c r="NI245"/>
     </row>
     <row r="246" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A246" s="34"/>
+      <c r="A246" s="46"/>
       <c r="B246" s="13">
         <v>2</v>
       </c>
@@ -37973,7 +38129,7 @@
       </c>
     </row>
     <row r="247" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A247" s="34"/>
+      <c r="A247" s="46"/>
       <c r="B247" s="13">
         <v>3</v>
       </c>
@@ -38103,7 +38259,7 @@
       </c>
     </row>
     <row r="248" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A248" s="34"/>
+      <c r="A248" s="46"/>
       <c r="B248" s="13">
         <v>4</v>
       </c>
@@ -38233,7 +38389,7 @@
       </c>
     </row>
     <row r="249" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A249" s="34"/>
+      <c r="A249" s="46"/>
       <c r="B249" s="13">
         <v>5</v>
       </c>
@@ -38363,7 +38519,7 @@
       </c>
     </row>
     <row r="250" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A250" s="34"/>
+      <c r="A250" s="46"/>
       <c r="B250" s="13">
         <v>6</v>
       </c>
@@ -38493,7 +38649,7 @@
       </c>
     </row>
     <row r="251" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A251" s="34"/>
+      <c r="A251" s="46"/>
       <c r="B251" s="13">
         <v>7</v>
       </c>
@@ -38623,7 +38779,7 @@
       </c>
     </row>
     <row r="252" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A252" s="34"/>
+      <c r="A252" s="46"/>
       <c r="B252" s="13">
         <v>8</v>
       </c>
@@ -38753,7 +38909,7 @@
       </c>
     </row>
     <row r="253" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A253" s="34"/>
+      <c r="A253" s="46"/>
       <c r="B253" s="13">
         <v>9</v>
       </c>
@@ -38883,7 +39039,7 @@
       </c>
     </row>
     <row r="254" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A254" s="34"/>
+      <c r="A254" s="46"/>
       <c r="B254" s="13">
         <v>10</v>
       </c>
@@ -39013,7 +39169,7 @@
       </c>
     </row>
     <row r="255" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A255" s="34"/>
+      <c r="A255" s="46"/>
       <c r="B255" s="13">
         <v>11</v>
       </c>
@@ -39143,7 +39299,7 @@
       </c>
     </row>
     <row r="256" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A256" s="34"/>
+      <c r="A256" s="46"/>
       <c r="B256" s="13">
         <v>12</v>
       </c>
@@ -39273,7 +39429,7 @@
       </c>
     </row>
     <row r="257" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A257" s="34"/>
+      <c r="A257" s="46"/>
       <c r="B257" s="13">
         <v>13</v>
       </c>
@@ -39403,7 +39559,7 @@
       </c>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A258" s="34"/>
+      <c r="A258" s="46"/>
       <c r="B258" s="13">
         <v>14</v>
       </c>
@@ -39533,7 +39689,7 @@
       </c>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A259" s="34"/>
+      <c r="A259" s="46"/>
       <c r="B259" s="13">
         <v>15</v>
       </c>
@@ -39663,7 +39819,7 @@
       </c>
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A260" s="34"/>
+      <c r="A260" s="46"/>
       <c r="B260" s="13">
         <v>16</v>
       </c>
@@ -39793,7 +39949,7 @@
       </c>
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A261" s="34"/>
+      <c r="A261" s="46"/>
       <c r="B261" s="13">
         <v>17</v>
       </c>
@@ -39923,7 +40079,7 @@
       </c>
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A262" s="34"/>
+      <c r="A262" s="46"/>
       <c r="B262" s="13">
         <v>18</v>
       </c>
@@ -40053,7 +40209,7 @@
       </c>
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A263" s="34"/>
+      <c r="A263" s="46"/>
       <c r="B263" s="13">
         <v>19</v>
       </c>
@@ -40183,7 +40339,7 @@
       </c>
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A264" s="34"/>
+      <c r="A264" s="46"/>
       <c r="B264" s="13">
         <v>20</v>
       </c>
@@ -40313,7 +40469,7 @@
       </c>
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A265" s="34"/>
+      <c r="A265" s="46"/>
       <c r="B265" s="13">
         <v>21</v>
       </c>
@@ -40443,7 +40599,7 @@
       </c>
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A266" s="34"/>
+      <c r="A266" s="46"/>
       <c r="B266" s="13">
         <v>22</v>
       </c>
@@ -40573,7 +40729,7 @@
       </c>
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A267" s="34"/>
+      <c r="A267" s="46"/>
       <c r="B267" s="13">
         <v>23</v>
       </c>
@@ -40703,7 +40859,7 @@
       </c>
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A268" s="34"/>
+      <c r="A268" s="46"/>
       <c r="B268" s="13">
         <v>24</v>
       </c>
@@ -40833,7 +40989,7 @@
       </c>
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A269" s="34"/>
+      <c r="A269" s="46"/>
       <c r="B269" s="13">
         <v>25</v>
       </c>
@@ -40963,7 +41119,7 @@
       </c>
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A270" s="34"/>
+      <c r="A270" s="46"/>
       <c r="B270" s="13">
         <v>26</v>
       </c>
@@ -41093,7 +41249,7 @@
       </c>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A271" s="34"/>
+      <c r="A271" s="46"/>
       <c r="B271" s="13">
         <v>27</v>
       </c>
@@ -41223,7 +41379,7 @@
       </c>
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A272" s="34"/>
+      <c r="A272" s="46"/>
       <c r="B272" s="13">
         <v>28</v>
       </c>
@@ -41353,7 +41509,7 @@
       </c>
     </row>
     <row r="273" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A273" s="34"/>
+      <c r="A273" s="46"/>
       <c r="B273" s="13">
         <v>29</v>
       </c>
@@ -41483,7 +41639,7 @@
       </c>
     </row>
     <row r="274" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A274" s="34"/>
+      <c r="A274" s="46"/>
       <c r="B274" s="13">
         <v>30</v>
       </c>
@@ -41613,7 +41769,7 @@
       </c>
     </row>
     <row r="275" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A275" s="34"/>
+      <c r="A275" s="46"/>
       <c r="B275" s="13">
         <v>31</v>
       </c>
@@ -41743,7 +41899,7 @@
       </c>
     </row>
     <row r="276" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="34"/>
+      <c r="A276" s="46"/>
       <c r="B276" s="16">
         <v>32</v>
       </c>
@@ -42202,7 +42358,7 @@
       <c r="NI276" s="2"/>
     </row>
     <row r="277" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A277" s="34"/>
+      <c r="A277" s="46"/>
       <c r="B277" s="13">
         <v>33</v>
       </c>
@@ -42331,7 +42487,7 @@
       </c>
     </row>
     <row r="278" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A278" s="34"/>
+      <c r="A278" s="46"/>
       <c r="B278" s="13">
         <v>34</v>
       </c>
@@ -42460,7 +42616,7 @@
       </c>
     </row>
     <row r="279" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A279" s="34"/>
+      <c r="A279" s="46"/>
       <c r="B279" s="13">
         <v>35</v>
       </c>
@@ -42589,7 +42745,7 @@
       </c>
     </row>
     <row r="280" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A280" s="34"/>
+      <c r="A280" s="46"/>
       <c r="B280" s="13">
         <v>36</v>
       </c>
@@ -42718,7 +42874,7 @@
       </c>
     </row>
     <row r="281" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A281" s="34"/>
+      <c r="A281" s="46"/>
       <c r="B281" s="13">
         <v>37</v>
       </c>
@@ -42847,7 +43003,7 @@
       </c>
     </row>
     <row r="282" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A282" s="34"/>
+      <c r="A282" s="46"/>
       <c r="B282" s="13">
         <v>38</v>
       </c>
@@ -42976,7 +43132,7 @@
       </c>
     </row>
     <row r="283" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A283" s="34"/>
+      <c r="A283" s="46"/>
       <c r="B283" s="13">
         <v>39</v>
       </c>
@@ -43105,7 +43261,7 @@
       </c>
     </row>
     <row r="284" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A284" s="34"/>
+      <c r="A284" s="46"/>
       <c r="B284" s="13">
         <v>40</v>
       </c>
@@ -43234,7 +43390,7 @@
       </c>
     </row>
     <row r="285" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="31">
+      <c r="A285" s="47">
         <v>8</v>
       </c>
       <c r="B285" s="16">
@@ -43247,94 +43403,94 @@
       <c r="D285" s="3">
         <v>0.8</v>
       </c>
-      <c r="E285" s="43">
-        <v>0</v>
-      </c>
-      <c r="F285" s="43">
-        <v>0</v>
-      </c>
-      <c r="G285" s="43">
-        <v>0</v>
-      </c>
-      <c r="H285" s="43">
-        <v>0</v>
-      </c>
-      <c r="I285" s="43">
-        <v>0</v>
-      </c>
-      <c r="J285" s="43">
-        <v>0</v>
-      </c>
-      <c r="K285" s="43">
-        <v>0</v>
-      </c>
-      <c r="L285" s="43">
-        <v>0</v>
-      </c>
-      <c r="M285" s="43">
-        <v>0</v>
-      </c>
-      <c r="N285" s="43">
-        <v>0</v>
-      </c>
-      <c r="O285" s="43">
-        <v>0</v>
-      </c>
-      <c r="P285" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q285" s="43">
-        <v>0</v>
-      </c>
-      <c r="R285" s="43">
-        <v>0</v>
-      </c>
-      <c r="S285" s="43">
-        <v>0</v>
-      </c>
-      <c r="T285" s="43">
-        <v>0</v>
-      </c>
-      <c r="U285" s="43">
-        <v>0</v>
-      </c>
-      <c r="V285" s="43">
-        <v>0</v>
-      </c>
-      <c r="W285" s="43">
-        <v>0</v>
-      </c>
-      <c r="X285" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y285" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG285" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH285" s="43">
+      <c r="E285" s="33">
+        <v>0</v>
+      </c>
+      <c r="F285" s="33">
+        <v>0</v>
+      </c>
+      <c r="G285" s="33">
+        <v>0</v>
+      </c>
+      <c r="H285" s="33">
+        <v>0</v>
+      </c>
+      <c r="I285" s="33">
+        <v>0</v>
+      </c>
+      <c r="J285" s="33">
+        <v>0</v>
+      </c>
+      <c r="K285" s="33">
+        <v>0</v>
+      </c>
+      <c r="L285" s="33">
+        <v>0</v>
+      </c>
+      <c r="M285" s="33">
+        <v>0</v>
+      </c>
+      <c r="N285" s="33">
+        <v>0</v>
+      </c>
+      <c r="O285" s="33">
+        <v>0</v>
+      </c>
+      <c r="P285" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q285" s="33">
+        <v>0</v>
+      </c>
+      <c r="R285" s="33">
+        <v>0</v>
+      </c>
+      <c r="S285" s="33">
+        <v>0</v>
+      </c>
+      <c r="T285" s="33">
+        <v>0</v>
+      </c>
+      <c r="U285" s="33">
+        <v>0</v>
+      </c>
+      <c r="V285" s="33">
+        <v>0</v>
+      </c>
+      <c r="W285" s="33">
+        <v>0</v>
+      </c>
+      <c r="X285" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y285" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG285" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH285" s="33">
         <v>0</v>
       </c>
       <c r="AI285" s="27">
@@ -43361,7 +43517,7 @@
       <c r="AP285" s="18">
         <v>0</v>
       </c>
-      <c r="AQ285" s="44">
+      <c r="AQ285" s="34">
         <v>0</v>
       </c>
       <c r="AR285"/>
@@ -43696,7 +43852,7 @@
       <c r="NI285"/>
     </row>
     <row r="286" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A286" s="32"/>
+      <c r="A286" s="48"/>
       <c r="B286" s="13">
         <v>2</v>
       </c>
@@ -43826,7 +43982,7 @@
       </c>
     </row>
     <row r="287" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A287" s="32"/>
+      <c r="A287" s="48"/>
       <c r="B287" s="13">
         <v>3</v>
       </c>
@@ -43956,7 +44112,7 @@
       </c>
     </row>
     <row r="288" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A288" s="32"/>
+      <c r="A288" s="48"/>
       <c r="B288" s="13">
         <v>4</v>
       </c>
@@ -44086,7 +44242,7 @@
       </c>
     </row>
     <row r="289" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A289" s="32"/>
+      <c r="A289" s="48"/>
       <c r="B289" s="13">
         <v>5</v>
       </c>
@@ -44216,7 +44372,7 @@
       </c>
     </row>
     <row r="290" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A290" s="32"/>
+      <c r="A290" s="48"/>
       <c r="B290" s="13">
         <v>6</v>
       </c>
@@ -44346,7 +44502,7 @@
       </c>
     </row>
     <row r="291" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A291" s="32"/>
+      <c r="A291" s="48"/>
       <c r="B291" s="13">
         <v>7</v>
       </c>
@@ -44476,7 +44632,7 @@
       </c>
     </row>
     <row r="292" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A292" s="32"/>
+      <c r="A292" s="48"/>
       <c r="B292" s="13">
         <v>8</v>
       </c>
@@ -44606,7 +44762,7 @@
       </c>
     </row>
     <row r="293" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A293" s="32"/>
+      <c r="A293" s="48"/>
       <c r="B293" s="13">
         <v>9</v>
       </c>
@@ -44736,7 +44892,7 @@
       </c>
     </row>
     <row r="294" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A294" s="32"/>
+      <c r="A294" s="48"/>
       <c r="B294" s="13">
         <v>10</v>
       </c>
@@ -44866,7 +45022,7 @@
       </c>
     </row>
     <row r="295" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A295" s="32"/>
+      <c r="A295" s="48"/>
       <c r="B295" s="13">
         <v>11</v>
       </c>
@@ -44996,7 +45152,7 @@
       </c>
     </row>
     <row r="296" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A296" s="32"/>
+      <c r="A296" s="48"/>
       <c r="B296" s="13">
         <v>12</v>
       </c>
@@ -45126,7 +45282,7 @@
       </c>
     </row>
     <row r="297" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A297" s="32"/>
+      <c r="A297" s="48"/>
       <c r="B297" s="13">
         <v>13</v>
       </c>
@@ -45256,7 +45412,7 @@
       </c>
     </row>
     <row r="298" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A298" s="32"/>
+      <c r="A298" s="48"/>
       <c r="B298" s="13">
         <v>14</v>
       </c>
@@ -45386,7 +45542,7 @@
       </c>
     </row>
     <row r="299" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A299" s="32"/>
+      <c r="A299" s="48"/>
       <c r="B299" s="13">
         <v>15</v>
       </c>
@@ -45516,7 +45672,7 @@
       </c>
     </row>
     <row r="300" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A300" s="32"/>
+      <c r="A300" s="48"/>
       <c r="B300" s="13">
         <v>16</v>
       </c>
@@ -45646,7 +45802,7 @@
       </c>
     </row>
     <row r="301" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A301" s="32"/>
+      <c r="A301" s="48"/>
       <c r="B301" s="13">
         <v>17</v>
       </c>
@@ -45776,7 +45932,7 @@
       </c>
     </row>
     <row r="302" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A302" s="32"/>
+      <c r="A302" s="48"/>
       <c r="B302" s="13">
         <v>18</v>
       </c>
@@ -45906,7 +46062,7 @@
       </c>
     </row>
     <row r="303" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A303" s="32"/>
+      <c r="A303" s="48"/>
       <c r="B303" s="13">
         <v>19</v>
       </c>
@@ -46036,7 +46192,7 @@
       </c>
     </row>
     <row r="304" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A304" s="32"/>
+      <c r="A304" s="48"/>
       <c r="B304" s="13">
         <v>20</v>
       </c>
@@ -46166,7 +46322,7 @@
       </c>
     </row>
     <row r="305" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A305" s="32"/>
+      <c r="A305" s="48"/>
       <c r="B305" s="13">
         <v>21</v>
       </c>
@@ -46296,7 +46452,7 @@
       </c>
     </row>
     <row r="306" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A306" s="32"/>
+      <c r="A306" s="48"/>
       <c r="B306" s="13">
         <v>22</v>
       </c>
@@ -46426,7 +46582,7 @@
       </c>
     </row>
     <row r="307" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A307" s="32"/>
+      <c r="A307" s="48"/>
       <c r="B307" s="13">
         <v>23</v>
       </c>
@@ -46556,7 +46712,7 @@
       </c>
     </row>
     <row r="308" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A308" s="32"/>
+      <c r="A308" s="48"/>
       <c r="B308" s="13">
         <v>24</v>
       </c>
@@ -46686,7 +46842,7 @@
       </c>
     </row>
     <row r="309" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A309" s="32"/>
+      <c r="A309" s="48"/>
       <c r="B309" s="13">
         <v>25</v>
       </c>
@@ -46816,7 +46972,7 @@
       </c>
     </row>
     <row r="310" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A310" s="32"/>
+      <c r="A310" s="48"/>
       <c r="B310" s="13">
         <v>26</v>
       </c>
@@ -46946,7 +47102,7 @@
       </c>
     </row>
     <row r="311" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A311" s="32"/>
+      <c r="A311" s="48"/>
       <c r="B311" s="13">
         <v>27</v>
       </c>
@@ -47076,7 +47232,7 @@
       </c>
     </row>
     <row r="312" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A312" s="32"/>
+      <c r="A312" s="48"/>
       <c r="B312" s="13">
         <v>28</v>
       </c>
@@ -47206,7 +47362,7 @@
       </c>
     </row>
     <row r="313" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A313" s="32"/>
+      <c r="A313" s="48"/>
       <c r="B313" s="13">
         <v>29</v>
       </c>
@@ -47336,7 +47492,7 @@
       </c>
     </row>
     <row r="314" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A314" s="32"/>
+      <c r="A314" s="48"/>
       <c r="B314" s="13">
         <v>30</v>
       </c>
@@ -47466,7 +47622,7 @@
       </c>
     </row>
     <row r="315" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A315" s="32"/>
+      <c r="A315" s="48"/>
       <c r="B315" s="13">
         <v>31</v>
       </c>
@@ -47596,7 +47752,7 @@
       </c>
     </row>
     <row r="316" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="32"/>
+      <c r="A316" s="48"/>
       <c r="B316" s="16">
         <v>32</v>
       </c>
@@ -48055,7 +48211,7 @@
       <c r="NI316" s="2"/>
     </row>
     <row r="317" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A317" s="32"/>
+      <c r="A317" s="48"/>
       <c r="B317" s="13">
         <v>33</v>
       </c>
@@ -48184,7 +48340,7 @@
       </c>
     </row>
     <row r="318" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A318" s="32"/>
+      <c r="A318" s="48"/>
       <c r="B318" s="13">
         <v>34</v>
       </c>
@@ -48313,7 +48469,7 @@
       </c>
     </row>
     <row r="319" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A319" s="32"/>
+      <c r="A319" s="48"/>
       <c r="B319" s="13">
         <v>35</v>
       </c>
@@ -48442,7 +48598,7 @@
       </c>
     </row>
     <row r="320" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A320" s="32"/>
+      <c r="A320" s="48"/>
       <c r="B320" s="13">
         <v>36</v>
       </c>
@@ -48571,7 +48727,7 @@
       </c>
     </row>
     <row r="321" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A321" s="32"/>
+      <c r="A321" s="48"/>
       <c r="B321" s="13">
         <v>37</v>
       </c>
@@ -48700,7 +48856,7 @@
       </c>
     </row>
     <row r="322" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A322" s="32"/>
+      <c r="A322" s="48"/>
       <c r="B322" s="13">
         <v>38</v>
       </c>
@@ -48829,7 +48985,7 @@
       </c>
     </row>
     <row r="323" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A323" s="32"/>
+      <c r="A323" s="48"/>
       <c r="B323" s="13">
         <v>39</v>
       </c>
@@ -48958,7 +49114,7 @@
       </c>
     </row>
     <row r="324" spans="1:373" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="33"/>
+      <c r="A324" s="49"/>
       <c r="B324" s="20">
         <v>40</v>
       </c>
@@ -49087,7 +49243,7 @@
       </c>
     </row>
     <row r="325" spans="1:373" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="34">
+      <c r="A325" s="46">
         <v>9</v>
       </c>
       <c r="B325" s="13">
@@ -49100,94 +49256,94 @@
       <c r="D325" s="3">
         <v>0.8</v>
       </c>
-      <c r="E325" s="43">
-        <v>0</v>
-      </c>
-      <c r="F325" s="43">
-        <v>0</v>
-      </c>
-      <c r="G325" s="43">
-        <v>0</v>
-      </c>
-      <c r="H325" s="43">
-        <v>0</v>
-      </c>
-      <c r="I325" s="43">
-        <v>0</v>
-      </c>
-      <c r="J325" s="43">
-        <v>0</v>
-      </c>
-      <c r="K325" s="43">
-        <v>0</v>
-      </c>
-      <c r="L325" s="43">
-        <v>0</v>
-      </c>
-      <c r="M325" s="43">
-        <v>0</v>
-      </c>
-      <c r="N325" s="43">
-        <v>0</v>
-      </c>
-      <c r="O325" s="43">
-        <v>0</v>
-      </c>
-      <c r="P325" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q325" s="43">
-        <v>0</v>
-      </c>
-      <c r="R325" s="43">
-        <v>0</v>
-      </c>
-      <c r="S325" s="43">
-        <v>0</v>
-      </c>
-      <c r="T325" s="43">
-        <v>0</v>
-      </c>
-      <c r="U325" s="43">
-        <v>0</v>
-      </c>
-      <c r="V325" s="43">
-        <v>0</v>
-      </c>
-      <c r="W325" s="43">
-        <v>0</v>
-      </c>
-      <c r="X325" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y325" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG325" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH325" s="43">
+      <c r="E325" s="33">
+        <v>0</v>
+      </c>
+      <c r="F325" s="33">
+        <v>0</v>
+      </c>
+      <c r="G325" s="33">
+        <v>0</v>
+      </c>
+      <c r="H325" s="33">
+        <v>0</v>
+      </c>
+      <c r="I325" s="33">
+        <v>0</v>
+      </c>
+      <c r="J325" s="33">
+        <v>0</v>
+      </c>
+      <c r="K325" s="33">
+        <v>0</v>
+      </c>
+      <c r="L325" s="33">
+        <v>0</v>
+      </c>
+      <c r="M325" s="33">
+        <v>0</v>
+      </c>
+      <c r="N325" s="33">
+        <v>0</v>
+      </c>
+      <c r="O325" s="33">
+        <v>0</v>
+      </c>
+      <c r="P325" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q325" s="33">
+        <v>0</v>
+      </c>
+      <c r="R325" s="33">
+        <v>0</v>
+      </c>
+      <c r="S325" s="33">
+        <v>0</v>
+      </c>
+      <c r="T325" s="33">
+        <v>0</v>
+      </c>
+      <c r="U325" s="33">
+        <v>0</v>
+      </c>
+      <c r="V325" s="33">
+        <v>0</v>
+      </c>
+      <c r="W325" s="33">
+        <v>0</v>
+      </c>
+      <c r="X325" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y325" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG325" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH325" s="33">
         <v>0</v>
       </c>
       <c r="AI325" s="27">
@@ -49214,7 +49370,7 @@
       <c r="AP325" s="18">
         <v>0</v>
       </c>
-      <c r="AQ325" s="44">
+      <c r="AQ325" s="34">
         <v>0</v>
       </c>
       <c r="AR325"/>
@@ -49549,7 +49705,7 @@
       <c r="NI325"/>
     </row>
     <row r="326" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A326" s="34"/>
+      <c r="A326" s="46"/>
       <c r="B326" s="13">
         <v>2</v>
       </c>
@@ -49679,7 +49835,7 @@
       </c>
     </row>
     <row r="327" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A327" s="34"/>
+      <c r="A327" s="46"/>
       <c r="B327" s="13">
         <v>3</v>
       </c>
@@ -49809,7 +49965,7 @@
       </c>
     </row>
     <row r="328" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A328" s="34"/>
+      <c r="A328" s="46"/>
       <c r="B328" s="13">
         <v>4</v>
       </c>
@@ -49939,7 +50095,7 @@
       </c>
     </row>
     <row r="329" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A329" s="34"/>
+      <c r="A329" s="46"/>
       <c r="B329" s="13">
         <v>5</v>
       </c>
@@ -50069,7 +50225,7 @@
       </c>
     </row>
     <row r="330" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A330" s="34"/>
+      <c r="A330" s="46"/>
       <c r="B330" s="13">
         <v>6</v>
       </c>
@@ -50199,7 +50355,7 @@
       </c>
     </row>
     <row r="331" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A331" s="34"/>
+      <c r="A331" s="46"/>
       <c r="B331" s="13">
         <v>7</v>
       </c>
@@ -50329,7 +50485,7 @@
       </c>
     </row>
     <row r="332" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A332" s="34"/>
+      <c r="A332" s="46"/>
       <c r="B332" s="13">
         <v>8</v>
       </c>
@@ -50459,7 +50615,7 @@
       </c>
     </row>
     <row r="333" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A333" s="34"/>
+      <c r="A333" s="46"/>
       <c r="B333" s="13">
         <v>9</v>
       </c>
@@ -50589,7 +50745,7 @@
       </c>
     </row>
     <row r="334" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A334" s="34"/>
+      <c r="A334" s="46"/>
       <c r="B334" s="13">
         <v>10</v>
       </c>
@@ -50719,7 +50875,7 @@
       </c>
     </row>
     <row r="335" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A335" s="34"/>
+      <c r="A335" s="46"/>
       <c r="B335" s="13">
         <v>11</v>
       </c>
@@ -50849,7 +51005,7 @@
       </c>
     </row>
     <row r="336" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A336" s="34"/>
+      <c r="A336" s="46"/>
       <c r="B336" s="13">
         <v>12</v>
       </c>
@@ -50979,7 +51135,7 @@
       </c>
     </row>
     <row r="337" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A337" s="34"/>
+      <c r="A337" s="46"/>
       <c r="B337" s="13">
         <v>13</v>
       </c>
@@ -51109,7 +51265,7 @@
       </c>
     </row>
     <row r="338" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A338" s="34"/>
+      <c r="A338" s="46"/>
       <c r="B338" s="13">
         <v>14</v>
       </c>
@@ -51239,7 +51395,7 @@
       </c>
     </row>
     <row r="339" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A339" s="34"/>
+      <c r="A339" s="46"/>
       <c r="B339" s="13">
         <v>15</v>
       </c>
@@ -51369,7 +51525,7 @@
       </c>
     </row>
     <row r="340" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A340" s="34"/>
+      <c r="A340" s="46"/>
       <c r="B340" s="13">
         <v>16</v>
       </c>
@@ -51499,7 +51655,7 @@
       </c>
     </row>
     <row r="341" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A341" s="34"/>
+      <c r="A341" s="46"/>
       <c r="B341" s="13">
         <v>17</v>
       </c>
@@ -51629,7 +51785,7 @@
       </c>
     </row>
     <row r="342" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A342" s="34"/>
+      <c r="A342" s="46"/>
       <c r="B342" s="13">
         <v>18</v>
       </c>
@@ -51759,7 +51915,7 @@
       </c>
     </row>
     <row r="343" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A343" s="34"/>
+      <c r="A343" s="46"/>
       <c r="B343" s="13">
         <v>19</v>
       </c>
@@ -51889,7 +52045,7 @@
       </c>
     </row>
     <row r="344" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A344" s="34"/>
+      <c r="A344" s="46"/>
       <c r="B344" s="13">
         <v>20</v>
       </c>
@@ -52019,7 +52175,7 @@
       </c>
     </row>
     <row r="345" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A345" s="34"/>
+      <c r="A345" s="46"/>
       <c r="B345" s="13">
         <v>21</v>
       </c>
@@ -52149,7 +52305,7 @@
       </c>
     </row>
     <row r="346" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A346" s="34"/>
+      <c r="A346" s="46"/>
       <c r="B346" s="13">
         <v>22</v>
       </c>
@@ -52279,7 +52435,7 @@
       </c>
     </row>
     <row r="347" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A347" s="34"/>
+      <c r="A347" s="46"/>
       <c r="B347" s="13">
         <v>23</v>
       </c>
@@ -52409,7 +52565,7 @@
       </c>
     </row>
     <row r="348" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A348" s="34"/>
+      <c r="A348" s="46"/>
       <c r="B348" s="13">
         <v>24</v>
       </c>
@@ -52539,7 +52695,7 @@
       </c>
     </row>
     <row r="349" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A349" s="34"/>
+      <c r="A349" s="46"/>
       <c r="B349" s="13">
         <v>25</v>
       </c>
@@ -52669,7 +52825,7 @@
       </c>
     </row>
     <row r="350" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A350" s="34"/>
+      <c r="A350" s="46"/>
       <c r="B350" s="13">
         <v>26</v>
       </c>
@@ -52799,7 +52955,7 @@
       </c>
     </row>
     <row r="351" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A351" s="34"/>
+      <c r="A351" s="46"/>
       <c r="B351" s="13">
         <v>27</v>
       </c>
@@ -52929,7 +53085,7 @@
       </c>
     </row>
     <row r="352" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A352" s="34"/>
+      <c r="A352" s="46"/>
       <c r="B352" s="13">
         <v>28</v>
       </c>
@@ -53059,7 +53215,7 @@
       </c>
     </row>
     <row r="353" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A353" s="34"/>
+      <c r="A353" s="46"/>
       <c r="B353" s="13">
         <v>29</v>
       </c>
@@ -53189,7 +53345,7 @@
       </c>
     </row>
     <row r="354" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A354" s="34"/>
+      <c r="A354" s="46"/>
       <c r="B354" s="13">
         <v>30</v>
       </c>
@@ -53319,7 +53475,7 @@
       </c>
     </row>
     <row r="355" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A355" s="34"/>
+      <c r="A355" s="46"/>
       <c r="B355" s="13">
         <v>31</v>
       </c>
@@ -53449,7 +53605,7 @@
       </c>
     </row>
     <row r="356" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="34"/>
+      <c r="A356" s="46"/>
       <c r="B356" s="16">
         <v>32</v>
       </c>
@@ -53908,7 +54064,7 @@
       <c r="NI356" s="2"/>
     </row>
     <row r="357" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A357" s="34"/>
+      <c r="A357" s="46"/>
       <c r="B357" s="13">
         <v>33</v>
       </c>
@@ -54037,7 +54193,7 @@
       </c>
     </row>
     <row r="358" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A358" s="34"/>
+      <c r="A358" s="46"/>
       <c r="B358" s="13">
         <v>34</v>
       </c>
@@ -54166,7 +54322,7 @@
       </c>
     </row>
     <row r="359" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A359" s="34"/>
+      <c r="A359" s="46"/>
       <c r="B359" s="13">
         <v>35</v>
       </c>
@@ -54295,7 +54451,7 @@
       </c>
     </row>
     <row r="360" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A360" s="34"/>
+      <c r="A360" s="46"/>
       <c r="B360" s="13">
         <v>36</v>
       </c>
@@ -54424,7 +54580,7 @@
       </c>
     </row>
     <row r="361" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A361" s="34"/>
+      <c r="A361" s="46"/>
       <c r="B361" s="13">
         <v>37</v>
       </c>
@@ -54553,7 +54709,7 @@
       </c>
     </row>
     <row r="362" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A362" s="34"/>
+      <c r="A362" s="46"/>
       <c r="B362" s="13">
         <v>38</v>
       </c>
@@ -54682,7 +54838,7 @@
       </c>
     </row>
     <row r="363" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A363" s="34"/>
+      <c r="A363" s="46"/>
       <c r="B363" s="13">
         <v>39</v>
       </c>
@@ -54811,7 +54967,7 @@
       </c>
     </row>
     <row r="364" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A364" s="34"/>
+      <c r="A364" s="46"/>
       <c r="B364" s="13">
         <v>40</v>
       </c>
@@ -54940,7 +55096,7 @@
       </c>
     </row>
     <row r="365" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="31">
+      <c r="A365" s="47">
         <v>10</v>
       </c>
       <c r="B365" s="16">
@@ -54950,97 +55106,97 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
       </c>
-      <c r="D365" s="42">
+      <c r="D365" s="32">
         <v>0.75</v>
       </c>
-      <c r="E365" s="43">
-        <v>0</v>
-      </c>
-      <c r="F365" s="43">
-        <v>0</v>
-      </c>
-      <c r="G365" s="43">
-        <v>0</v>
-      </c>
-      <c r="H365" s="43">
-        <v>0</v>
-      </c>
-      <c r="I365" s="43">
-        <v>0</v>
-      </c>
-      <c r="J365" s="43">
-        <v>0</v>
-      </c>
-      <c r="K365" s="43">
-        <v>0</v>
-      </c>
-      <c r="L365" s="43">
-        <v>0</v>
-      </c>
-      <c r="M365" s="43">
-        <v>0</v>
-      </c>
-      <c r="N365" s="43">
-        <v>0</v>
-      </c>
-      <c r="O365" s="43">
-        <v>0</v>
-      </c>
-      <c r="P365" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q365" s="43">
-        <v>0</v>
-      </c>
-      <c r="R365" s="43">
-        <v>0</v>
-      </c>
-      <c r="S365" s="43">
-        <v>0</v>
-      </c>
-      <c r="T365" s="43">
-        <v>0</v>
-      </c>
-      <c r="U365" s="43">
-        <v>0</v>
-      </c>
-      <c r="V365" s="43">
-        <v>0</v>
-      </c>
-      <c r="W365" s="43">
-        <v>0</v>
-      </c>
-      <c r="X365" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y365" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG365" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH365" s="43">
+      <c r="E365" s="33">
+        <v>0</v>
+      </c>
+      <c r="F365" s="33">
+        <v>0</v>
+      </c>
+      <c r="G365" s="33">
+        <v>0</v>
+      </c>
+      <c r="H365" s="33">
+        <v>0</v>
+      </c>
+      <c r="I365" s="33">
+        <v>0</v>
+      </c>
+      <c r="J365" s="33">
+        <v>0</v>
+      </c>
+      <c r="K365" s="33">
+        <v>0</v>
+      </c>
+      <c r="L365" s="33">
+        <v>0</v>
+      </c>
+      <c r="M365" s="33">
+        <v>0</v>
+      </c>
+      <c r="N365" s="33">
+        <v>0</v>
+      </c>
+      <c r="O365" s="33">
+        <v>0</v>
+      </c>
+      <c r="P365" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q365" s="33">
+        <v>0</v>
+      </c>
+      <c r="R365" s="33">
+        <v>0</v>
+      </c>
+      <c r="S365" s="33">
+        <v>0</v>
+      </c>
+      <c r="T365" s="33">
+        <v>0</v>
+      </c>
+      <c r="U365" s="33">
+        <v>0</v>
+      </c>
+      <c r="V365" s="33">
+        <v>0</v>
+      </c>
+      <c r="W365" s="33">
+        <v>0</v>
+      </c>
+      <c r="X365" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y365" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG365" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH365" s="33">
         <v>0</v>
       </c>
       <c r="AI365" s="27">
@@ -55067,7 +55223,7 @@
       <c r="AP365" s="18">
         <v>0</v>
       </c>
-      <c r="AQ365" s="44">
+      <c r="AQ365" s="34">
         <v>0</v>
       </c>
       <c r="AR365"/>
@@ -55402,7 +55558,7 @@
       <c r="NI365"/>
     </row>
     <row r="366" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A366" s="32"/>
+      <c r="A366" s="48"/>
       <c r="B366" s="13">
         <v>2</v>
       </c>
@@ -55532,7 +55688,7 @@
       </c>
     </row>
     <row r="367" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A367" s="32"/>
+      <c r="A367" s="48"/>
       <c r="B367" s="13">
         <v>3</v>
       </c>
@@ -55662,7 +55818,7 @@
       </c>
     </row>
     <row r="368" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A368" s="32"/>
+      <c r="A368" s="48"/>
       <c r="B368" s="13">
         <v>4</v>
       </c>
@@ -55792,7 +55948,7 @@
       </c>
     </row>
     <row r="369" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A369" s="32"/>
+      <c r="A369" s="48"/>
       <c r="B369" s="13">
         <v>5</v>
       </c>
@@ -55922,7 +56078,7 @@
       </c>
     </row>
     <row r="370" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A370" s="32"/>
+      <c r="A370" s="48"/>
       <c r="B370" s="13">
         <v>6</v>
       </c>
@@ -56052,7 +56208,7 @@
       </c>
     </row>
     <row r="371" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A371" s="32"/>
+      <c r="A371" s="48"/>
       <c r="B371" s="13">
         <v>7</v>
       </c>
@@ -56182,7 +56338,7 @@
       </c>
     </row>
     <row r="372" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A372" s="32"/>
+      <c r="A372" s="48"/>
       <c r="B372" s="13">
         <v>8</v>
       </c>
@@ -56312,7 +56468,7 @@
       </c>
     </row>
     <row r="373" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A373" s="32"/>
+      <c r="A373" s="48"/>
       <c r="B373" s="13">
         <v>9</v>
       </c>
@@ -56442,7 +56598,7 @@
       </c>
     </row>
     <row r="374" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A374" s="32"/>
+      <c r="A374" s="48"/>
       <c r="B374" s="13">
         <v>10</v>
       </c>
@@ -56572,7 +56728,7 @@
       </c>
     </row>
     <row r="375" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A375" s="32"/>
+      <c r="A375" s="48"/>
       <c r="B375" s="13">
         <v>11</v>
       </c>
@@ -56702,7 +56858,7 @@
       </c>
     </row>
     <row r="376" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A376" s="32"/>
+      <c r="A376" s="48"/>
       <c r="B376" s="13">
         <v>12</v>
       </c>
@@ -56832,7 +56988,7 @@
       </c>
     </row>
     <row r="377" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A377" s="32"/>
+      <c r="A377" s="48"/>
       <c r="B377" s="13">
         <v>13</v>
       </c>
@@ -56962,7 +57118,7 @@
       </c>
     </row>
     <row r="378" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A378" s="32"/>
+      <c r="A378" s="48"/>
       <c r="B378" s="13">
         <v>14</v>
       </c>
@@ -57092,7 +57248,7 @@
       </c>
     </row>
     <row r="379" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A379" s="32"/>
+      <c r="A379" s="48"/>
       <c r="B379" s="13">
         <v>15</v>
       </c>
@@ -57222,7 +57378,7 @@
       </c>
     </row>
     <row r="380" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A380" s="32"/>
+      <c r="A380" s="48"/>
       <c r="B380" s="13">
         <v>16</v>
       </c>
@@ -57352,7 +57508,7 @@
       </c>
     </row>
     <row r="381" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A381" s="32"/>
+      <c r="A381" s="48"/>
       <c r="B381" s="13">
         <v>17</v>
       </c>
@@ -57482,7 +57638,7 @@
       </c>
     </row>
     <row r="382" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A382" s="32"/>
+      <c r="A382" s="48"/>
       <c r="B382" s="13">
         <v>18</v>
       </c>
@@ -57612,7 +57768,7 @@
       </c>
     </row>
     <row r="383" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A383" s="32"/>
+      <c r="A383" s="48"/>
       <c r="B383" s="13">
         <v>19</v>
       </c>
@@ -57742,7 +57898,7 @@
       </c>
     </row>
     <row r="384" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A384" s="32"/>
+      <c r="A384" s="48"/>
       <c r="B384" s="13">
         <v>20</v>
       </c>
@@ -57872,7 +58028,7 @@
       </c>
     </row>
     <row r="385" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A385" s="32"/>
+      <c r="A385" s="48"/>
       <c r="B385" s="13">
         <v>21</v>
       </c>
@@ -58002,7 +58158,7 @@
       </c>
     </row>
     <row r="386" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A386" s="32"/>
+      <c r="A386" s="48"/>
       <c r="B386" s="13">
         <v>22</v>
       </c>
@@ -58132,7 +58288,7 @@
       </c>
     </row>
     <row r="387" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A387" s="32"/>
+      <c r="A387" s="48"/>
       <c r="B387" s="13">
         <v>23</v>
       </c>
@@ -58262,7 +58418,7 @@
       </c>
     </row>
     <row r="388" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A388" s="32"/>
+      <c r="A388" s="48"/>
       <c r="B388" s="13">
         <v>24</v>
       </c>
@@ -58392,7 +58548,7 @@
       </c>
     </row>
     <row r="389" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A389" s="32"/>
+      <c r="A389" s="48"/>
       <c r="B389" s="13">
         <v>25</v>
       </c>
@@ -58522,7 +58678,7 @@
       </c>
     </row>
     <row r="390" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A390" s="32"/>
+      <c r="A390" s="48"/>
       <c r="B390" s="13">
         <v>26</v>
       </c>
@@ -58652,7 +58808,7 @@
       </c>
     </row>
     <row r="391" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A391" s="32"/>
+      <c r="A391" s="48"/>
       <c r="B391" s="13">
         <v>27</v>
       </c>
@@ -58782,7 +58938,7 @@
       </c>
     </row>
     <row r="392" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A392" s="32"/>
+      <c r="A392" s="48"/>
       <c r="B392" s="13">
         <v>28</v>
       </c>
@@ -58912,7 +59068,7 @@
       </c>
     </row>
     <row r="393" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A393" s="32"/>
+      <c r="A393" s="48"/>
       <c r="B393" s="13">
         <v>29</v>
       </c>
@@ -59042,7 +59198,7 @@
       </c>
     </row>
     <row r="394" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A394" s="32"/>
+      <c r="A394" s="48"/>
       <c r="B394" s="13">
         <v>30</v>
       </c>
@@ -59172,7 +59328,7 @@
       </c>
     </row>
     <row r="395" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A395" s="32"/>
+      <c r="A395" s="48"/>
       <c r="B395" s="13">
         <v>31</v>
       </c>
@@ -59302,7 +59458,7 @@
       </c>
     </row>
     <row r="396" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="32"/>
+      <c r="A396" s="48"/>
       <c r="B396" s="16">
         <v>32</v>
       </c>
@@ -59761,7 +59917,7 @@
       <c r="NI396" s="2"/>
     </row>
     <row r="397" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A397" s="32"/>
+      <c r="A397" s="48"/>
       <c r="B397" s="13">
         <v>33</v>
       </c>
@@ -59890,7 +60046,7 @@
       </c>
     </row>
     <row r="398" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A398" s="32"/>
+      <c r="A398" s="48"/>
       <c r="B398" s="13">
         <v>34</v>
       </c>
@@ -60019,7 +60175,7 @@
       </c>
     </row>
     <row r="399" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A399" s="32"/>
+      <c r="A399" s="48"/>
       <c r="B399" s="13">
         <v>35</v>
       </c>
@@ -60148,7 +60304,7 @@
       </c>
     </row>
     <row r="400" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A400" s="32"/>
+      <c r="A400" s="48"/>
       <c r="B400" s="13">
         <v>36</v>
       </c>
@@ -60277,7 +60433,7 @@
       </c>
     </row>
     <row r="401" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A401" s="32"/>
+      <c r="A401" s="48"/>
       <c r="B401" s="13">
         <v>37</v>
       </c>
@@ -60406,7 +60562,7 @@
       </c>
     </row>
     <row r="402" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A402" s="32"/>
+      <c r="A402" s="48"/>
       <c r="B402" s="13">
         <v>38</v>
       </c>
@@ -60535,7 +60691,7 @@
       </c>
     </row>
     <row r="403" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A403" s="32"/>
+      <c r="A403" s="48"/>
       <c r="B403" s="13">
         <v>39</v>
       </c>
@@ -60664,7 +60820,7 @@
       </c>
     </row>
     <row r="404" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A404" s="33"/>
+      <c r="A404" s="49"/>
       <c r="B404" s="20">
         <v>40</v>
       </c>
@@ -60793,7 +60949,7 @@
       </c>
     </row>
     <row r="405" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="34">
+      <c r="A405" s="46">
         <v>11</v>
       </c>
       <c r="B405" s="13">
@@ -60803,97 +60959,97 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
       </c>
-      <c r="D405" s="42">
+      <c r="D405" s="32">
         <v>0.75</v>
       </c>
-      <c r="E405" s="43">
-        <v>0</v>
-      </c>
-      <c r="F405" s="43">
-        <v>0</v>
-      </c>
-      <c r="G405" s="43">
-        <v>0</v>
-      </c>
-      <c r="H405" s="43">
-        <v>0</v>
-      </c>
-      <c r="I405" s="43">
-        <v>0</v>
-      </c>
-      <c r="J405" s="43">
-        <v>0</v>
-      </c>
-      <c r="K405" s="43">
-        <v>0</v>
-      </c>
-      <c r="L405" s="43">
-        <v>0</v>
-      </c>
-      <c r="M405" s="43">
-        <v>0</v>
-      </c>
-      <c r="N405" s="43">
-        <v>0</v>
-      </c>
-      <c r="O405" s="43">
-        <v>0</v>
-      </c>
-      <c r="P405" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q405" s="43">
-        <v>0</v>
-      </c>
-      <c r="R405" s="43">
-        <v>0</v>
-      </c>
-      <c r="S405" s="43">
-        <v>0</v>
-      </c>
-      <c r="T405" s="43">
-        <v>0</v>
-      </c>
-      <c r="U405" s="43">
-        <v>0</v>
-      </c>
-      <c r="V405" s="43">
-        <v>0</v>
-      </c>
-      <c r="W405" s="43">
-        <v>0</v>
-      </c>
-      <c r="X405" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y405" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG405" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH405" s="43">
+      <c r="E405" s="33">
+        <v>0</v>
+      </c>
+      <c r="F405" s="33">
+        <v>0</v>
+      </c>
+      <c r="G405" s="33">
+        <v>0</v>
+      </c>
+      <c r="H405" s="33">
+        <v>0</v>
+      </c>
+      <c r="I405" s="33">
+        <v>0</v>
+      </c>
+      <c r="J405" s="33">
+        <v>0</v>
+      </c>
+      <c r="K405" s="33">
+        <v>0</v>
+      </c>
+      <c r="L405" s="33">
+        <v>0</v>
+      </c>
+      <c r="M405" s="33">
+        <v>0</v>
+      </c>
+      <c r="N405" s="33">
+        <v>0</v>
+      </c>
+      <c r="O405" s="33">
+        <v>0</v>
+      </c>
+      <c r="P405" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q405" s="33">
+        <v>0</v>
+      </c>
+      <c r="R405" s="33">
+        <v>0</v>
+      </c>
+      <c r="S405" s="33">
+        <v>0</v>
+      </c>
+      <c r="T405" s="33">
+        <v>0</v>
+      </c>
+      <c r="U405" s="33">
+        <v>0</v>
+      </c>
+      <c r="V405" s="33">
+        <v>0</v>
+      </c>
+      <c r="W405" s="33">
+        <v>0</v>
+      </c>
+      <c r="X405" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y405" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG405" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH405" s="33">
         <v>0</v>
       </c>
       <c r="AI405" s="27">
@@ -60920,7 +61076,7 @@
       <c r="AP405" s="18">
         <v>0</v>
       </c>
-      <c r="AQ405" s="44">
+      <c r="AQ405" s="34">
         <v>0</v>
       </c>
       <c r="AR405"/>
@@ -61255,7 +61411,7 @@
       <c r="NI405"/>
     </row>
     <row r="406" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A406" s="34"/>
+      <c r="A406" s="46"/>
       <c r="B406" s="13">
         <v>2</v>
       </c>
@@ -61385,7 +61541,7 @@
       </c>
     </row>
     <row r="407" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A407" s="34"/>
+      <c r="A407" s="46"/>
       <c r="B407" s="13">
         <v>3</v>
       </c>
@@ -61515,7 +61671,7 @@
       </c>
     </row>
     <row r="408" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A408" s="34"/>
+      <c r="A408" s="46"/>
       <c r="B408" s="13">
         <v>4</v>
       </c>
@@ -61645,7 +61801,7 @@
       </c>
     </row>
     <row r="409" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A409" s="34"/>
+      <c r="A409" s="46"/>
       <c r="B409" s="13">
         <v>5</v>
       </c>
@@ -61775,7 +61931,7 @@
       </c>
     </row>
     <row r="410" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A410" s="34"/>
+      <c r="A410" s="46"/>
       <c r="B410" s="13">
         <v>6</v>
       </c>
@@ -61905,7 +62061,7 @@
       </c>
     </row>
     <row r="411" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A411" s="34"/>
+      <c r="A411" s="46"/>
       <c r="B411" s="13">
         <v>7</v>
       </c>
@@ -62035,7 +62191,7 @@
       </c>
     </row>
     <row r="412" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A412" s="34"/>
+      <c r="A412" s="46"/>
       <c r="B412" s="13">
         <v>8</v>
       </c>
@@ -62165,7 +62321,7 @@
       </c>
     </row>
     <row r="413" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A413" s="34"/>
+      <c r="A413" s="46"/>
       <c r="B413" s="13">
         <v>9</v>
       </c>
@@ -62295,7 +62451,7 @@
       </c>
     </row>
     <row r="414" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A414" s="34"/>
+      <c r="A414" s="46"/>
       <c r="B414" s="13">
         <v>10</v>
       </c>
@@ -62425,7 +62581,7 @@
       </c>
     </row>
     <row r="415" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A415" s="34"/>
+      <c r="A415" s="46"/>
       <c r="B415" s="13">
         <v>11</v>
       </c>
@@ -62555,7 +62711,7 @@
       </c>
     </row>
     <row r="416" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A416" s="34"/>
+      <c r="A416" s="46"/>
       <c r="B416" s="13">
         <v>12</v>
       </c>
@@ -62685,7 +62841,7 @@
       </c>
     </row>
     <row r="417" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A417" s="34"/>
+      <c r="A417" s="46"/>
       <c r="B417" s="13">
         <v>13</v>
       </c>
@@ -62815,7 +62971,7 @@
       </c>
     </row>
     <row r="418" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A418" s="34"/>
+      <c r="A418" s="46"/>
       <c r="B418" s="13">
         <v>14</v>
       </c>
@@ -62945,7 +63101,7 @@
       </c>
     </row>
     <row r="419" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A419" s="34"/>
+      <c r="A419" s="46"/>
       <c r="B419" s="13">
         <v>15</v>
       </c>
@@ -63075,7 +63231,7 @@
       </c>
     </row>
     <row r="420" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A420" s="34"/>
+      <c r="A420" s="46"/>
       <c r="B420" s="13">
         <v>16</v>
       </c>
@@ -63205,7 +63361,7 @@
       </c>
     </row>
     <row r="421" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A421" s="34"/>
+      <c r="A421" s="46"/>
       <c r="B421" s="13">
         <v>17</v>
       </c>
@@ -63335,7 +63491,7 @@
       </c>
     </row>
     <row r="422" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A422" s="34"/>
+      <c r="A422" s="46"/>
       <c r="B422" s="13">
         <v>18</v>
       </c>
@@ -63465,7 +63621,7 @@
       </c>
     </row>
     <row r="423" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A423" s="34"/>
+      <c r="A423" s="46"/>
       <c r="B423" s="13">
         <v>19</v>
       </c>
@@ -63595,7 +63751,7 @@
       </c>
     </row>
     <row r="424" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A424" s="34"/>
+      <c r="A424" s="46"/>
       <c r="B424" s="13">
         <v>20</v>
       </c>
@@ -63725,7 +63881,7 @@
       </c>
     </row>
     <row r="425" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A425" s="34"/>
+      <c r="A425" s="46"/>
       <c r="B425" s="13">
         <v>21</v>
       </c>
@@ -63855,7 +64011,7 @@
       </c>
     </row>
     <row r="426" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A426" s="34"/>
+      <c r="A426" s="46"/>
       <c r="B426" s="13">
         <v>22</v>
       </c>
@@ -63985,7 +64141,7 @@
       </c>
     </row>
     <row r="427" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A427" s="34"/>
+      <c r="A427" s="46"/>
       <c r="B427" s="13">
         <v>23</v>
       </c>
@@ -64115,7 +64271,7 @@
       </c>
     </row>
     <row r="428" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A428" s="34"/>
+      <c r="A428" s="46"/>
       <c r="B428" s="13">
         <v>24</v>
       </c>
@@ -64245,7 +64401,7 @@
       </c>
     </row>
     <row r="429" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A429" s="34"/>
+      <c r="A429" s="46"/>
       <c r="B429" s="13">
         <v>25</v>
       </c>
@@ -64375,7 +64531,7 @@
       </c>
     </row>
     <row r="430" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A430" s="34"/>
+      <c r="A430" s="46"/>
       <c r="B430" s="13">
         <v>26</v>
       </c>
@@ -64505,7 +64661,7 @@
       </c>
     </row>
     <row r="431" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A431" s="34"/>
+      <c r="A431" s="46"/>
       <c r="B431" s="13">
         <v>27</v>
       </c>
@@ -64635,7 +64791,7 @@
       </c>
     </row>
     <row r="432" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A432" s="34"/>
+      <c r="A432" s="46"/>
       <c r="B432" s="13">
         <v>28</v>
       </c>
@@ -64765,7 +64921,7 @@
       </c>
     </row>
     <row r="433" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A433" s="34"/>
+      <c r="A433" s="46"/>
       <c r="B433" s="13">
         <v>29</v>
       </c>
@@ -64895,7 +65051,7 @@
       </c>
     </row>
     <row r="434" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A434" s="34"/>
+      <c r="A434" s="46"/>
       <c r="B434" s="13">
         <v>30</v>
       </c>
@@ -65025,7 +65181,7 @@
       </c>
     </row>
     <row r="435" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A435" s="34"/>
+      <c r="A435" s="46"/>
       <c r="B435" s="13">
         <v>31</v>
       </c>
@@ -65155,7 +65311,7 @@
       </c>
     </row>
     <row r="436" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="34"/>
+      <c r="A436" s="46"/>
       <c r="B436" s="16">
         <v>32</v>
       </c>
@@ -65614,7 +65770,7 @@
       <c r="NI436" s="2"/>
     </row>
     <row r="437" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A437" s="34"/>
+      <c r="A437" s="46"/>
       <c r="B437" s="13">
         <v>33</v>
       </c>
@@ -65743,7 +65899,7 @@
       </c>
     </row>
     <row r="438" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A438" s="34"/>
+      <c r="A438" s="46"/>
       <c r="B438" s="13">
         <v>34</v>
       </c>
@@ -65872,7 +66028,7 @@
       </c>
     </row>
     <row r="439" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A439" s="34"/>
+      <c r="A439" s="46"/>
       <c r="B439" s="13">
         <v>35</v>
       </c>
@@ -66001,7 +66157,7 @@
       </c>
     </row>
     <row r="440" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A440" s="34"/>
+      <c r="A440" s="46"/>
       <c r="B440" s="13">
         <v>36</v>
       </c>
@@ -66130,7 +66286,7 @@
       </c>
     </row>
     <row r="441" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A441" s="34"/>
+      <c r="A441" s="46"/>
       <c r="B441" s="13">
         <v>37</v>
       </c>
@@ -66259,7 +66415,7 @@
       </c>
     </row>
     <row r="442" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A442" s="34"/>
+      <c r="A442" s="46"/>
       <c r="B442" s="13">
         <v>38</v>
       </c>
@@ -66388,7 +66544,7 @@
       </c>
     </row>
     <row r="443" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A443" s="34"/>
+      <c r="A443" s="46"/>
       <c r="B443" s="13">
         <v>39</v>
       </c>
@@ -66517,7 +66673,7 @@
       </c>
     </row>
     <row r="444" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A444" s="34"/>
+      <c r="A444" s="46"/>
       <c r="B444" s="13">
         <v>40</v>
       </c>
@@ -66646,7 +66802,7 @@
       </c>
     </row>
     <row r="445" spans="1:373" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="31">
+      <c r="A445" s="47">
         <v>12</v>
       </c>
       <c r="B445" s="16">
@@ -66656,97 +66812,97 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
       </c>
-      <c r="D445" s="42">
+      <c r="D445" s="32">
         <v>0.75</v>
       </c>
-      <c r="E445" s="43">
-        <v>0</v>
-      </c>
-      <c r="F445" s="43">
-        <v>0</v>
-      </c>
-      <c r="G445" s="43">
-        <v>0</v>
-      </c>
-      <c r="H445" s="43">
-        <v>0</v>
-      </c>
-      <c r="I445" s="43">
-        <v>0</v>
-      </c>
-      <c r="J445" s="43">
-        <v>0</v>
-      </c>
-      <c r="K445" s="43">
-        <v>0</v>
-      </c>
-      <c r="L445" s="43">
-        <v>0</v>
-      </c>
-      <c r="M445" s="43">
-        <v>0</v>
-      </c>
-      <c r="N445" s="43">
-        <v>0</v>
-      </c>
-      <c r="O445" s="43">
-        <v>0</v>
-      </c>
-      <c r="P445" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q445" s="43">
-        <v>0</v>
-      </c>
-      <c r="R445" s="43">
-        <v>0</v>
-      </c>
-      <c r="S445" s="43">
-        <v>0</v>
-      </c>
-      <c r="T445" s="43">
-        <v>0</v>
-      </c>
-      <c r="U445" s="43">
-        <v>0</v>
-      </c>
-      <c r="V445" s="43">
-        <v>0</v>
-      </c>
-      <c r="W445" s="43">
-        <v>0</v>
-      </c>
-      <c r="X445" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y445" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AB445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AC445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG445" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH445" s="43">
+      <c r="E445" s="33">
+        <v>0</v>
+      </c>
+      <c r="F445" s="33">
+        <v>0</v>
+      </c>
+      <c r="G445" s="33">
+        <v>0</v>
+      </c>
+      <c r="H445" s="33">
+        <v>0</v>
+      </c>
+      <c r="I445" s="33">
+        <v>0</v>
+      </c>
+      <c r="J445" s="33">
+        <v>0</v>
+      </c>
+      <c r="K445" s="33">
+        <v>0</v>
+      </c>
+      <c r="L445" s="33">
+        <v>0</v>
+      </c>
+      <c r="M445" s="33">
+        <v>0</v>
+      </c>
+      <c r="N445" s="33">
+        <v>0</v>
+      </c>
+      <c r="O445" s="33">
+        <v>0</v>
+      </c>
+      <c r="P445" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q445" s="33">
+        <v>0</v>
+      </c>
+      <c r="R445" s="33">
+        <v>0</v>
+      </c>
+      <c r="S445" s="33">
+        <v>0</v>
+      </c>
+      <c r="T445" s="33">
+        <v>0</v>
+      </c>
+      <c r="U445" s="33">
+        <v>0</v>
+      </c>
+      <c r="V445" s="33">
+        <v>0</v>
+      </c>
+      <c r="W445" s="33">
+        <v>0</v>
+      </c>
+      <c r="X445" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y445" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG445" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH445" s="33">
         <v>0</v>
       </c>
       <c r="AI445" s="27">
@@ -66773,7 +66929,7 @@
       <c r="AP445" s="18">
         <v>0</v>
       </c>
-      <c r="AQ445" s="44">
+      <c r="AQ445" s="34">
         <v>0</v>
       </c>
       <c r="AR445"/>
@@ -67108,7 +67264,7 @@
       <c r="NI445"/>
     </row>
     <row r="446" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A446" s="32"/>
+      <c r="A446" s="48"/>
       <c r="B446" s="13">
         <v>2</v>
       </c>
@@ -67238,7 +67394,7 @@
       </c>
     </row>
     <row r="447" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A447" s="32"/>
+      <c r="A447" s="48"/>
       <c r="B447" s="13">
         <v>3</v>
       </c>
@@ -67368,7 +67524,7 @@
       </c>
     </row>
     <row r="448" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A448" s="32"/>
+      <c r="A448" s="48"/>
       <c r="B448" s="13">
         <v>4</v>
       </c>
@@ -67498,7 +67654,7 @@
       </c>
     </row>
     <row r="449" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A449" s="32"/>
+      <c r="A449" s="48"/>
       <c r="B449" s="13">
         <v>5</v>
       </c>
@@ -67628,7 +67784,7 @@
       </c>
     </row>
     <row r="450" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A450" s="32"/>
+      <c r="A450" s="48"/>
       <c r="B450" s="13">
         <v>6</v>
       </c>
@@ -67758,7 +67914,7 @@
       </c>
     </row>
     <row r="451" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A451" s="32"/>
+      <c r="A451" s="48"/>
       <c r="B451" s="13">
         <v>7</v>
       </c>
@@ -67888,7 +68044,7 @@
       </c>
     </row>
     <row r="452" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A452" s="32"/>
+      <c r="A452" s="48"/>
       <c r="B452" s="13">
         <v>8</v>
       </c>
@@ -68018,7 +68174,7 @@
       </c>
     </row>
     <row r="453" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A453" s="32"/>
+      <c r="A453" s="48"/>
       <c r="B453" s="13">
         <v>9</v>
       </c>
@@ -68148,7 +68304,7 @@
       </c>
     </row>
     <row r="454" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A454" s="32"/>
+      <c r="A454" s="48"/>
       <c r="B454" s="13">
         <v>10</v>
       </c>
@@ -68278,7 +68434,7 @@
       </c>
     </row>
     <row r="455" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A455" s="32"/>
+      <c r="A455" s="48"/>
       <c r="B455" s="13">
         <v>11</v>
       </c>
@@ -68408,7 +68564,7 @@
       </c>
     </row>
     <row r="456" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A456" s="32"/>
+      <c r="A456" s="48"/>
       <c r="B456" s="13">
         <v>12</v>
       </c>
@@ -68538,7 +68694,7 @@
       </c>
     </row>
     <row r="457" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A457" s="32"/>
+      <c r="A457" s="48"/>
       <c r="B457" s="13">
         <v>13</v>
       </c>
@@ -68668,7 +68824,7 @@
       </c>
     </row>
     <row r="458" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A458" s="32"/>
+      <c r="A458" s="48"/>
       <c r="B458" s="13">
         <v>14</v>
       </c>
@@ -68798,7 +68954,7 @@
       </c>
     </row>
     <row r="459" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A459" s="32"/>
+      <c r="A459" s="48"/>
       <c r="B459" s="13">
         <v>15</v>
       </c>
@@ -68928,7 +69084,7 @@
       </c>
     </row>
     <row r="460" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A460" s="32"/>
+      <c r="A460" s="48"/>
       <c r="B460" s="13">
         <v>16</v>
       </c>
@@ -69058,7 +69214,7 @@
       </c>
     </row>
     <row r="461" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A461" s="32"/>
+      <c r="A461" s="48"/>
       <c r="B461" s="13">
         <v>17</v>
       </c>
@@ -69188,7 +69344,7 @@
       </c>
     </row>
     <row r="462" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A462" s="32"/>
+      <c r="A462" s="48"/>
       <c r="B462" s="13">
         <v>18</v>
       </c>
@@ -69318,7 +69474,7 @@
       </c>
     </row>
     <row r="463" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A463" s="32"/>
+      <c r="A463" s="48"/>
       <c r="B463" s="13">
         <v>19</v>
       </c>
@@ -69448,7 +69604,7 @@
       </c>
     </row>
     <row r="464" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A464" s="32"/>
+      <c r="A464" s="48"/>
       <c r="B464" s="13">
         <v>20</v>
       </c>
@@ -69578,7 +69734,7 @@
       </c>
     </row>
     <row r="465" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A465" s="32"/>
+      <c r="A465" s="48"/>
       <c r="B465" s="13">
         <v>21</v>
       </c>
@@ -69708,7 +69864,7 @@
       </c>
     </row>
     <row r="466" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A466" s="32"/>
+      <c r="A466" s="48"/>
       <c r="B466" s="13">
         <v>22</v>
       </c>
@@ -69838,7 +69994,7 @@
       </c>
     </row>
     <row r="467" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A467" s="32"/>
+      <c r="A467" s="48"/>
       <c r="B467" s="13">
         <v>23</v>
       </c>
@@ -69968,7 +70124,7 @@
       </c>
     </row>
     <row r="468" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A468" s="32"/>
+      <c r="A468" s="48"/>
       <c r="B468" s="13">
         <v>24</v>
       </c>
@@ -70098,7 +70254,7 @@
       </c>
     </row>
     <row r="469" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A469" s="32"/>
+      <c r="A469" s="48"/>
       <c r="B469" s="13">
         <v>25</v>
       </c>
@@ -70228,7 +70384,7 @@
       </c>
     </row>
     <row r="470" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A470" s="32"/>
+      <c r="A470" s="48"/>
       <c r="B470" s="13">
         <v>26</v>
       </c>
@@ -70358,7 +70514,7 @@
       </c>
     </row>
     <row r="471" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A471" s="32"/>
+      <c r="A471" s="48"/>
       <c r="B471" s="13">
         <v>27</v>
       </c>
@@ -70488,7 +70644,7 @@
       </c>
     </row>
     <row r="472" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A472" s="32"/>
+      <c r="A472" s="48"/>
       <c r="B472" s="13">
         <v>28</v>
       </c>
@@ -70618,7 +70774,7 @@
       </c>
     </row>
     <row r="473" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A473" s="32"/>
+      <c r="A473" s="48"/>
       <c r="B473" s="13">
         <v>29</v>
       </c>
@@ -70748,7 +70904,7 @@
       </c>
     </row>
     <row r="474" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A474" s="32"/>
+      <c r="A474" s="48"/>
       <c r="B474" s="13">
         <v>30</v>
       </c>
@@ -70878,7 +71034,7 @@
       </c>
     </row>
     <row r="475" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A475" s="32"/>
+      <c r="A475" s="48"/>
       <c r="B475" s="13">
         <v>31</v>
       </c>
@@ -71008,7 +71164,7 @@
       </c>
     </row>
     <row r="476" spans="1:373" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="32"/>
+      <c r="A476" s="48"/>
       <c r="B476" s="16">
         <v>32</v>
       </c>
@@ -71467,7 +71623,7 @@
       <c r="NI476" s="2"/>
     </row>
     <row r="477" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A477" s="32"/>
+      <c r="A477" s="48"/>
       <c r="B477" s="13">
         <v>33</v>
       </c>
@@ -71596,7 +71752,7 @@
       </c>
     </row>
     <row r="478" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A478" s="32"/>
+      <c r="A478" s="48"/>
       <c r="B478" s="13">
         <v>34</v>
       </c>
@@ -71725,7 +71881,7 @@
       </c>
     </row>
     <row r="479" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A479" s="32"/>
+      <c r="A479" s="48"/>
       <c r="B479" s="13">
         <v>35</v>
       </c>
@@ -71854,7 +72010,7 @@
       </c>
     </row>
     <row r="480" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A480" s="32"/>
+      <c r="A480" s="48"/>
       <c r="B480" s="13">
         <v>36</v>
       </c>
@@ -71983,7 +72139,7 @@
       </c>
     </row>
     <row r="481" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A481" s="32"/>
+      <c r="A481" s="48"/>
       <c r="B481" s="13">
         <v>37</v>
       </c>
@@ -72112,7 +72268,7 @@
       </c>
     </row>
     <row r="482" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A482" s="32"/>
+      <c r="A482" s="48"/>
       <c r="B482" s="13">
         <v>38</v>
       </c>
@@ -72241,7 +72397,7 @@
       </c>
     </row>
     <row r="483" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="32"/>
+      <c r="A483" s="48"/>
       <c r="B483" s="13">
         <v>39</v>
       </c>
@@ -72370,7 +72526,7 @@
       </c>
     </row>
     <row r="484" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A484" s="33"/>
+      <c r="A484" s="49"/>
       <c r="B484" s="20">
         <v>40</v>
       </c>
@@ -72604,6 +72760,7 @@
     <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A285:A324"/>
     <mergeCell ref="A325:A364"/>
     <mergeCell ref="A365:A404"/>
     <mergeCell ref="A405:A444"/>
@@ -72620,7 +72777,6 @@
     <mergeCell ref="A165:A204"/>
     <mergeCell ref="A205:A244"/>
     <mergeCell ref="A245:A284"/>
-    <mergeCell ref="A285:A324"/>
   </mergeCells>
   <conditionalFormatting sqref="AI2:AQ2">
     <cfRule type="colorScale" priority="85">
